--- a/catagorise/sec_total_for_examining.xlsx
+++ b/catagorise/sec_total_for_examining.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jupyter연습\factors_affecting_stock_price\catagorise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2F43158C-9919-433C-9B8C-B941693F2FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B4DEFB-9369-4CE6-8FC2-2F51D6933E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="1125" windowWidth="20220" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sec_historical (2)" sheetId="5" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="value">sec!$A$1:$C$160</definedName>
     <definedName name="value1">sec!$B$1:$B$160</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -90,11 +90,30 @@
   <si>
     <t>foreigneretc</t>
   </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1. 기준일자 전 거래가 있었던 직전의 가장 가까운 날짜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 거래일자의 차이가 1일 이상인 경우의 처리 방법 (주말기준으로 처리)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 거래가 이루어진 것으로 판단하는 기준은?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,22 +1061,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.75" customWidth="1"/>
+    <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1137,11 @@
       <c r="V1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>894</v>
       </c>
@@ -1183,16 +1205,11 @@
       <c r="V2">
         <v>1430</v>
       </c>
-      <c r="X2">
-        <f>IFERROR(MATCH(B2,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B2,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>895</v>
       </c>
@@ -1256,16 +1273,11 @@
       <c r="V3">
         <v>1015</v>
       </c>
-      <c r="X3">
-        <f>IFERROR(MATCH(B3,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B3,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>896</v>
       </c>
@@ -1329,16 +1341,11 @@
       <c r="V4">
         <v>351</v>
       </c>
-      <c r="X4">
-        <f>IFERROR(MATCH(B4,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B4,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>897</v>
       </c>
@@ -1402,16 +1409,11 @@
       <c r="V5">
         <v>1199</v>
       </c>
-      <c r="X5">
-        <f>IFERROR(MATCH(B5,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B5,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>898</v>
       </c>
@@ -1475,16 +1477,11 @@
       <c r="V6">
         <v>2296</v>
       </c>
-      <c r="X6">
-        <f>IFERROR(MATCH(B6,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B6,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>899</v>
       </c>
@@ -1530,16 +1527,11 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="X7">
-        <f>IFERROR(MATCH(B7,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B7,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>900</v>
       </c>
@@ -1585,16 +1577,11 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="X8">
-        <f>IFERROR(MATCH(B8,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B8,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>901</v>
       </c>
@@ -1659,16 +1646,13 @@
         <v>778</v>
       </c>
       <c r="X9">
-        <f>IFERROR(MATCH(B9,value1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="Y9">
-        <f>IFERROR(INDEX(value, MATCH(B9,value1,0), 3), "")</f>
-        <v>2</v>
-      </c>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>902</v>
       </c>
@@ -1733,15 +1717,13 @@
         <v>-413</v>
       </c>
       <c r="X10">
-        <f>IFERROR(MATCH(B10,value1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="Y10">
-        <f>IFERROR(INDEX(value, MATCH(B10,value1,0), 3), "")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>903</v>
       </c>
@@ -1806,15 +1788,13 @@
         <v>314</v>
       </c>
       <c r="X11">
-        <f>IFERROR(MATCH(B11,value1,0),0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y11">
-        <f>IFERROR(INDEX(value, MATCH(B11,value1,0), 3), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>904</v>
       </c>
@@ -1879,15 +1859,10 @@
         <v>-257</v>
       </c>
       <c r="X12">
-        <f>IFERROR(MATCH(B12,value1,0),0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y12">
-        <f>IFERROR(INDEX(value, MATCH(B12,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>905</v>
       </c>
@@ -1952,15 +1927,10 @@
         <v>532</v>
       </c>
       <c r="X13">
-        <f>IFERROR(MATCH(B13,value1,0),0)</f>
-        <v>6</v>
-      </c>
-      <c r="Y13">
-        <f>IFERROR(INDEX(value, MATCH(B13,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>906</v>
       </c>
@@ -2006,16 +1976,11 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="X14">
-        <f>IFERROR(MATCH(B14,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B14,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>907</v>
       </c>
@@ -2061,16 +2026,11 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="X15">
-        <f>IFERROR(MATCH(B15,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B15,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>908</v>
       </c>
@@ -2135,15 +2095,10 @@
         <v>-775</v>
       </c>
       <c r="X16">
-        <f>IFERROR(MATCH(B16,value1,0),0)</f>
-        <v>7</v>
-      </c>
-      <c r="Y16">
-        <f>IFERROR(INDEX(value, MATCH(B16,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>909</v>
       </c>
@@ -2208,15 +2163,10 @@
         <v>-92</v>
       </c>
       <c r="X17">
-        <f>IFERROR(MATCH(B17,value1,0),0)</f>
-        <v>8</v>
-      </c>
-      <c r="Y17">
-        <f>IFERROR(INDEX(value, MATCH(B17,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>910</v>
       </c>
@@ -2281,15 +2231,10 @@
         <v>2451</v>
       </c>
       <c r="X18">
-        <f>IFERROR(MATCH(B18,value1,0),0)</f>
-        <v>9</v>
-      </c>
-      <c r="Y18">
-        <f>IFERROR(INDEX(value, MATCH(B18,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>911</v>
       </c>
@@ -2354,15 +2299,10 @@
         <v>724</v>
       </c>
       <c r="X19">
-        <f>IFERROR(MATCH(B19,value1,0),0)</f>
-        <v>10</v>
-      </c>
-      <c r="Y19">
-        <f>IFERROR(INDEX(value, MATCH(B19,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>912</v>
       </c>
@@ -2427,15 +2367,10 @@
         <v>856</v>
       </c>
       <c r="X20">
-        <f>IFERROR(MATCH(B20,value1,0),0)</f>
-        <v>11</v>
-      </c>
-      <c r="Y20">
-        <f>IFERROR(INDEX(value, MATCH(B20,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>913</v>
       </c>
@@ -2481,16 +2416,11 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="X21">
-        <f>IFERROR(MATCH(B21,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B21,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>914</v>
       </c>
@@ -2536,16 +2466,11 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="X22">
-        <f>IFERROR(MATCH(B22,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B22,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>915</v>
       </c>
@@ -2610,15 +2535,10 @@
         <v>-1147</v>
       </c>
       <c r="X23">
-        <f>IFERROR(MATCH(B23,value1,0),0)</f>
-        <v>12</v>
-      </c>
-      <c r="Y23">
-        <f>IFERROR(INDEX(value, MATCH(B23,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>916</v>
       </c>
@@ -2683,15 +2603,10 @@
         <v>746</v>
       </c>
       <c r="X24">
-        <f>IFERROR(MATCH(B24,value1,0),0)</f>
-        <v>13</v>
-      </c>
-      <c r="Y24">
-        <f>IFERROR(INDEX(value, MATCH(B24,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>917</v>
       </c>
@@ -2756,15 +2671,10 @@
         <v>282</v>
       </c>
       <c r="X25">
-        <f>IFERROR(MATCH(B25,value1,0),0)</f>
-        <v>14</v>
-      </c>
-      <c r="Y25">
-        <f>IFERROR(INDEX(value, MATCH(B25,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>918</v>
       </c>
@@ -2829,15 +2739,10 @@
         <v>-870</v>
       </c>
       <c r="X26">
-        <f>IFERROR(MATCH(B26,value1,0),0)</f>
-        <v>15</v>
-      </c>
-      <c r="Y26">
-        <f>IFERROR(INDEX(value, MATCH(B26,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>919</v>
       </c>
@@ -2902,15 +2807,10 @@
         <v>5107</v>
       </c>
       <c r="X27">
-        <f>IFERROR(MATCH(B27,value1,0),0)</f>
-        <v>16</v>
-      </c>
-      <c r="Y27">
-        <f>IFERROR(INDEX(value, MATCH(B27,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>920</v>
       </c>
@@ -2956,16 +2856,11 @@
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="X28">
-        <f>IFERROR(MATCH(B28,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B28,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>921</v>
       </c>
@@ -3011,16 +2906,11 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="X29">
-        <f>IFERROR(MATCH(B29,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B29,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>922</v>
       </c>
@@ -3085,15 +2975,10 @@
         <v>-149</v>
       </c>
       <c r="X30">
-        <f>IFERROR(MATCH(B30,value1,0),0)</f>
-        <v>17</v>
-      </c>
-      <c r="Y30">
-        <f>IFERROR(INDEX(value, MATCH(B30,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>923</v>
       </c>
@@ -3158,15 +3043,10 @@
         <v>127</v>
       </c>
       <c r="X31">
-        <f>IFERROR(MATCH(B31,value1,0),0)</f>
-        <v>18</v>
-      </c>
-      <c r="Y31">
-        <f>IFERROR(INDEX(value, MATCH(B31,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>924</v>
       </c>
@@ -3231,15 +3111,10 @@
         <v>-162</v>
       </c>
       <c r="X32">
-        <f>IFERROR(MATCH(B32,value1,0),0)</f>
-        <v>19</v>
-      </c>
-      <c r="Y32">
-        <f>IFERROR(INDEX(value, MATCH(B32,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>925</v>
       </c>
@@ -3304,15 +3179,10 @@
         <v>169</v>
       </c>
       <c r="X33">
-        <f>IFERROR(MATCH(B33,value1,0),0)</f>
-        <v>20</v>
-      </c>
-      <c r="Y33">
-        <f>IFERROR(INDEX(value, MATCH(B33,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>926</v>
       </c>
@@ -3377,15 +3247,10 @@
         <v>-338</v>
       </c>
       <c r="X34">
-        <f>IFERROR(MATCH(B34,value1,0),0)</f>
-        <v>21</v>
-      </c>
-      <c r="Y34">
-        <f>IFERROR(INDEX(value, MATCH(B34,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>927</v>
       </c>
@@ -3431,16 +3296,11 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="X35">
-        <f>IFERROR(MATCH(B35,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B35,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>928</v>
       </c>
@@ -3486,16 +3346,11 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="X36">
-        <f>IFERROR(MATCH(B36,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B36,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>929</v>
       </c>
@@ -3560,15 +3415,10 @@
         <v>-1082</v>
       </c>
       <c r="X37">
-        <f>IFERROR(MATCH(B37,value1,0),0)</f>
-        <v>22</v>
-      </c>
-      <c r="Y37">
-        <f>IFERROR(INDEX(value, MATCH(B37,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>930</v>
       </c>
@@ -3633,15 +3483,10 @@
         <v>349</v>
       </c>
       <c r="X38">
-        <f>IFERROR(MATCH(B38,value1,0),0)</f>
-        <v>23</v>
-      </c>
-      <c r="Y38">
-        <f>IFERROR(INDEX(value, MATCH(B38,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>931</v>
       </c>
@@ -3706,15 +3551,10 @@
         <v>-41</v>
       </c>
       <c r="X39">
-        <f>IFERROR(MATCH(B39,value1,0),0)</f>
-        <v>24</v>
-      </c>
-      <c r="Y39">
-        <f>IFERROR(INDEX(value, MATCH(B39,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>932</v>
       </c>
@@ -3779,15 +3619,10 @@
         <v>809</v>
       </c>
       <c r="X40">
-        <f>IFERROR(MATCH(B40,value1,0),0)</f>
-        <v>25</v>
-      </c>
-      <c r="Y40">
-        <f>IFERROR(INDEX(value, MATCH(B40,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>933</v>
       </c>
@@ -3852,15 +3687,10 @@
         <v>756</v>
       </c>
       <c r="X41">
-        <f>IFERROR(MATCH(B41,value1,0),0)</f>
-        <v>26</v>
-      </c>
-      <c r="Y41">
-        <f>IFERROR(INDEX(value, MATCH(B41,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>934</v>
       </c>
@@ -3906,16 +3736,11 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="X42">
-        <f>IFERROR(MATCH(B42,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B42,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>935</v>
       </c>
@@ -3961,16 +3786,11 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="X43">
-        <f>IFERROR(MATCH(B43,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y43" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B43,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>936</v>
       </c>
@@ -4035,15 +3855,10 @@
         <v>-1677</v>
       </c>
       <c r="X44">
-        <f>IFERROR(MATCH(B44,value1,0),0)</f>
-        <v>27</v>
-      </c>
-      <c r="Y44">
-        <f>IFERROR(INDEX(value, MATCH(B44,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -4108,15 +3923,10 @@
         <v>-79</v>
       </c>
       <c r="X45">
-        <f>IFERROR(MATCH(B45,value1,0),0)</f>
-        <v>28</v>
-      </c>
-      <c r="Y45">
-        <f>IFERROR(INDEX(value, MATCH(B45,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>938</v>
       </c>
@@ -4181,15 +3991,10 @@
         <v>78</v>
       </c>
       <c r="X46">
-        <f>IFERROR(MATCH(B46,value1,0),0)</f>
-        <v>29</v>
-      </c>
-      <c r="Y46">
-        <f>IFERROR(INDEX(value, MATCH(B46,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>939</v>
       </c>
@@ -4254,15 +4059,10 @@
         <v>33</v>
       </c>
       <c r="X47">
-        <f>IFERROR(MATCH(B47,value1,0),0)</f>
-        <v>30</v>
-      </c>
-      <c r="Y47">
-        <f>IFERROR(INDEX(value, MATCH(B47,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>940</v>
       </c>
@@ -4327,15 +4127,10 @@
         <v>-4185</v>
       </c>
       <c r="X48">
-        <f>IFERROR(MATCH(B48,value1,0),0)</f>
-        <v>31</v>
-      </c>
-      <c r="Y48">
-        <f>IFERROR(INDEX(value, MATCH(B48,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>941</v>
       </c>
@@ -4381,16 +4176,11 @@
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="X49">
-        <f>IFERROR(MATCH(B49,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y49" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B49,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>942</v>
       </c>
@@ -4436,16 +4226,11 @@
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="X50">
-        <f>IFERROR(MATCH(B50,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y50" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B50,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>943</v>
       </c>
@@ -4510,15 +4295,10 @@
         <v>410</v>
       </c>
       <c r="X51">
-        <f>IFERROR(MATCH(B51,value1,0),0)</f>
-        <v>32</v>
-      </c>
-      <c r="Y51">
-        <f>IFERROR(INDEX(value, MATCH(B51,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>944</v>
       </c>
@@ -4583,15 +4363,10 @@
         <v>77</v>
       </c>
       <c r="X52">
-        <f>IFERROR(MATCH(B52,value1,0),0)</f>
-        <v>33</v>
-      </c>
-      <c r="Y52">
-        <f>IFERROR(INDEX(value, MATCH(B52,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>945</v>
       </c>
@@ -4656,15 +4431,10 @@
         <v>478</v>
       </c>
       <c r="X53">
-        <f>IFERROR(MATCH(B53,value1,0),0)</f>
-        <v>34</v>
-      </c>
-      <c r="Y53">
-        <f>IFERROR(INDEX(value, MATCH(B53,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>946</v>
       </c>
@@ -4729,15 +4499,10 @@
         <v>-758</v>
       </c>
       <c r="X54">
-        <f>IFERROR(MATCH(B54,value1,0),0)</f>
-        <v>35</v>
-      </c>
-      <c r="Y54">
-        <f>IFERROR(INDEX(value, MATCH(B54,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>947</v>
       </c>
@@ -4802,15 +4567,10 @@
         <v>628</v>
       </c>
       <c r="X55">
-        <f>IFERROR(MATCH(B55,value1,0),0)</f>
-        <v>36</v>
-      </c>
-      <c r="Y55">
-        <f>IFERROR(INDEX(value, MATCH(B55,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>948</v>
       </c>
@@ -4856,16 +4616,11 @@
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="X56">
-        <f>IFERROR(MATCH(B56,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y56" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B56,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>949</v>
       </c>
@@ -4911,16 +4666,11 @@
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="X57">
-        <f>IFERROR(MATCH(B57,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y57" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B57,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>950</v>
       </c>
@@ -4985,15 +4735,10 @@
         <v>1243</v>
       </c>
       <c r="X58">
-        <f>IFERROR(MATCH(B58,value1,0),0)</f>
-        <v>37</v>
-      </c>
-      <c r="Y58">
-        <f>IFERROR(INDEX(value, MATCH(B58,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>951</v>
       </c>
@@ -5058,15 +4803,10 @@
         <v>2009</v>
       </c>
       <c r="X59">
-        <f>IFERROR(MATCH(B59,value1,0),0)</f>
-        <v>38</v>
-      </c>
-      <c r="Y59">
-        <f>IFERROR(INDEX(value, MATCH(B59,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>952</v>
       </c>
@@ -5131,15 +4871,10 @@
         <v>1301</v>
       </c>
       <c r="X60">
-        <f>IFERROR(MATCH(B60,value1,0),0)</f>
-        <v>39</v>
-      </c>
-      <c r="Y60">
-        <f>IFERROR(INDEX(value, MATCH(B60,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>953</v>
       </c>
@@ -5204,15 +4939,10 @@
         <v>197</v>
       </c>
       <c r="X61">
-        <f>IFERROR(MATCH(B61,value1,0),0)</f>
-        <v>40</v>
-      </c>
-      <c r="Y61">
-        <f>IFERROR(INDEX(value, MATCH(B61,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>954</v>
       </c>
@@ -5277,15 +5007,10 @@
         <v>397</v>
       </c>
       <c r="X62">
-        <f>IFERROR(MATCH(B62,value1,0),0)</f>
-        <v>41</v>
-      </c>
-      <c r="Y62">
-        <f>IFERROR(INDEX(value, MATCH(B62,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>955</v>
       </c>
@@ -5331,16 +5056,11 @@
       <c r="V63">
         <v>0</v>
       </c>
-      <c r="X63">
-        <f>IFERROR(MATCH(B63,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y63" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B63,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>956</v>
       </c>
@@ -5386,16 +5106,11 @@
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="X64">
-        <f>IFERROR(MATCH(B64,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y64" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B64,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>957</v>
       </c>
@@ -5441,16 +5156,11 @@
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="X65">
-        <f>IFERROR(MATCH(B65,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y65" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B65,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>958</v>
       </c>
@@ -5515,15 +5225,10 @@
         <v>-395</v>
       </c>
       <c r="X66">
-        <f>IFERROR(MATCH(B66,value1,0),0)</f>
-        <v>42</v>
-      </c>
-      <c r="Y66">
-        <f>IFERROR(INDEX(value, MATCH(B66,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>959</v>
       </c>
@@ -5588,15 +5293,10 @@
         <v>256</v>
       </c>
       <c r="X67">
-        <f>IFERROR(MATCH(B67,value1,0),0)</f>
-        <v>43</v>
-      </c>
-      <c r="Y67">
-        <f>IFERROR(INDEX(value, MATCH(B67,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>960</v>
       </c>
@@ -5661,15 +5361,10 @@
         <v>-812</v>
       </c>
       <c r="X68">
-        <f>IFERROR(MATCH(B68,value1,0),0)</f>
-        <v>44</v>
-      </c>
-      <c r="Y68">
-        <f>IFERROR(INDEX(value, MATCH(B68,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>961</v>
       </c>
@@ -5734,15 +5429,10 @@
         <v>7</v>
       </c>
       <c r="X69">
-        <f>IFERROR(MATCH(B69,value1,0),0)</f>
-        <v>45</v>
-      </c>
-      <c r="Y69">
-        <f>IFERROR(INDEX(value, MATCH(B69,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>962</v>
       </c>
@@ -5788,16 +5478,11 @@
       <c r="V70">
         <v>0</v>
       </c>
-      <c r="X70">
-        <f>IFERROR(MATCH(B70,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y70" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B70,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>963</v>
       </c>
@@ -5843,16 +5528,11 @@
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="X71">
-        <f>IFERROR(MATCH(B71,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y71" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B71,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>964</v>
       </c>
@@ -5917,15 +5597,10 @@
         <v>624</v>
       </c>
       <c r="X72">
-        <f>IFERROR(MATCH(B72,value1,0),0)</f>
-        <v>46</v>
-      </c>
-      <c r="Y72">
-        <f>IFERROR(INDEX(value, MATCH(B72,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>965</v>
       </c>
@@ -5990,15 +5665,10 @@
         <v>706</v>
       </c>
       <c r="X73">
-        <f>IFERROR(MATCH(B73,value1,0),0)</f>
-        <v>47</v>
-      </c>
-      <c r="Y73">
-        <f>IFERROR(INDEX(value, MATCH(B73,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>966</v>
       </c>
@@ -6063,15 +5733,10 @@
         <v>164</v>
       </c>
       <c r="X74">
-        <f>IFERROR(MATCH(B74,value1,0),0)</f>
-        <v>48</v>
-      </c>
-      <c r="Y74">
-        <f>IFERROR(INDEX(value, MATCH(B74,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>967</v>
       </c>
@@ -6136,15 +5801,10 @@
         <v>65</v>
       </c>
       <c r="X75">
-        <f>IFERROR(MATCH(B75,value1,0),0)</f>
-        <v>49</v>
-      </c>
-      <c r="Y75">
-        <f>IFERROR(INDEX(value, MATCH(B75,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>968</v>
       </c>
@@ -6209,15 +5869,10 @@
         <v>-98</v>
       </c>
       <c r="X76">
-        <f>IFERROR(MATCH(B76,value1,0),0)</f>
-        <v>50</v>
-      </c>
-      <c r="Y76">
-        <f>IFERROR(INDEX(value, MATCH(B76,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>969</v>
       </c>
@@ -6263,16 +5918,11 @@
       <c r="V77">
         <v>0</v>
       </c>
-      <c r="X77">
-        <f>IFERROR(MATCH(B77,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y77" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B77,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>970</v>
       </c>
@@ -6318,16 +5968,11 @@
       <c r="V78">
         <v>0</v>
       </c>
-      <c r="X78">
-        <f>IFERROR(MATCH(B78,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y78" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B78,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>971</v>
       </c>
@@ -6392,15 +6037,10 @@
         <v>1109</v>
       </c>
       <c r="X79">
-        <f>IFERROR(MATCH(B79,value1,0),0)</f>
-        <v>51</v>
-      </c>
-      <c r="Y79">
-        <f>IFERROR(INDEX(value, MATCH(B79,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>972</v>
       </c>
@@ -6465,15 +6105,10 @@
         <v>415</v>
       </c>
       <c r="X80">
-        <f>IFERROR(MATCH(B80,value1,0),0)</f>
-        <v>52</v>
-      </c>
-      <c r="Y80">
-        <f>IFERROR(INDEX(value, MATCH(B80,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>973</v>
       </c>
@@ -6538,15 +6173,10 @@
         <v>31</v>
       </c>
       <c r="X81">
-        <f>IFERROR(MATCH(B81,value1,0),0)</f>
-        <v>53</v>
-      </c>
-      <c r="Y81">
-        <f>IFERROR(INDEX(value, MATCH(B81,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>974</v>
       </c>
@@ -6611,15 +6241,10 @@
         <v>656</v>
       </c>
       <c r="X82">
-        <f>IFERROR(MATCH(B82,value1,0),0)</f>
-        <v>54</v>
-      </c>
-      <c r="Y82">
-        <f>IFERROR(INDEX(value, MATCH(B82,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>975</v>
       </c>
@@ -6684,15 +6309,10 @@
         <v>681</v>
       </c>
       <c r="X83">
-        <f>IFERROR(MATCH(B83,value1,0),0)</f>
-        <v>55</v>
-      </c>
-      <c r="Y83">
-        <f>IFERROR(INDEX(value, MATCH(B83,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>976</v>
       </c>
@@ -6738,16 +6358,11 @@
       <c r="V84">
         <v>0</v>
       </c>
-      <c r="X84">
-        <f>IFERROR(MATCH(B84,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y84" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B84,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>977</v>
       </c>
@@ -6793,16 +6408,11 @@
       <c r="V85">
         <v>0</v>
       </c>
-      <c r="X85">
-        <f>IFERROR(MATCH(B85,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y85" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B85,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>978</v>
       </c>
@@ -6867,15 +6477,10 @@
         <v>-210</v>
       </c>
       <c r="X86">
-        <f>IFERROR(MATCH(B86,value1,0),0)</f>
-        <v>56</v>
-      </c>
-      <c r="Y86">
-        <f>IFERROR(INDEX(value, MATCH(B86,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>979</v>
       </c>
@@ -6940,15 +6545,10 @@
         <v>-101</v>
       </c>
       <c r="X87">
-        <f>IFERROR(MATCH(B87,value1,0),0)</f>
-        <v>57</v>
-      </c>
-      <c r="Y87">
-        <f>IFERROR(INDEX(value, MATCH(B87,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>980</v>
       </c>
@@ -7013,15 +6613,10 @@
         <v>580</v>
       </c>
       <c r="X88">
-        <f>IFERROR(MATCH(B88,value1,0),0)</f>
-        <v>58</v>
-      </c>
-      <c r="Y88">
-        <f>IFERROR(INDEX(value, MATCH(B88,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>981</v>
       </c>
@@ -7086,15 +6681,10 @@
         <v>884</v>
       </c>
       <c r="X89">
-        <f>IFERROR(MATCH(B89,value1,0),0)</f>
-        <v>59</v>
-      </c>
-      <c r="Y89">
-        <f>IFERROR(INDEX(value, MATCH(B89,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>982</v>
       </c>
@@ -7140,16 +6730,11 @@
       <c r="V90">
         <v>0</v>
       </c>
-      <c r="X90">
-        <f>IFERROR(MATCH(B90,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y90" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B90,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>983</v>
       </c>
@@ -7195,16 +6780,11 @@
       <c r="V91">
         <v>0</v>
       </c>
-      <c r="X91">
-        <f>IFERROR(MATCH(B91,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y91" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B91,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>984</v>
       </c>
@@ -7250,16 +6830,11 @@
       <c r="V92">
         <v>0</v>
       </c>
-      <c r="X92">
-        <f>IFERROR(MATCH(B92,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y92" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B92,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>985</v>
       </c>
@@ -7305,16 +6880,11 @@
       <c r="V93">
         <v>0</v>
       </c>
-      <c r="X93">
-        <f>IFERROR(MATCH(B93,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y93" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B93,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>986</v>
       </c>
@@ -7379,15 +6949,10 @@
         <v>-414</v>
       </c>
       <c r="X94">
-        <f>IFERROR(MATCH(B94,value1,0),0)</f>
-        <v>60</v>
-      </c>
-      <c r="Y94">
-        <f>IFERROR(INDEX(value, MATCH(B94,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>987</v>
       </c>
@@ -7452,15 +7017,10 @@
         <v>229</v>
       </c>
       <c r="X95">
-        <f>IFERROR(MATCH(B95,value1,0),0)</f>
-        <v>61</v>
-      </c>
-      <c r="Y95">
-        <f>IFERROR(INDEX(value, MATCH(B95,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>988</v>
       </c>
@@ -7525,15 +7085,10 @@
         <v>907</v>
       </c>
       <c r="X96">
-        <f>IFERROR(MATCH(B96,value1,0),0)</f>
-        <v>62</v>
-      </c>
-      <c r="Y96">
-        <f>IFERROR(INDEX(value, MATCH(B96,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>989</v>
       </c>
@@ -7598,15 +7153,10 @@
         <v>334</v>
       </c>
       <c r="X97">
-        <f>IFERROR(MATCH(B97,value1,0),0)</f>
-        <v>63</v>
-      </c>
-      <c r="Y97">
-        <f>IFERROR(INDEX(value, MATCH(B97,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>990</v>
       </c>
@@ -7652,16 +7202,11 @@
       <c r="V98">
         <v>0</v>
       </c>
-      <c r="X98">
-        <f>IFERROR(MATCH(B98,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y98" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B98,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>991</v>
       </c>
@@ -7707,16 +7252,11 @@
       <c r="V99">
         <v>0</v>
       </c>
-      <c r="X99">
-        <f>IFERROR(MATCH(B99,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y99" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B99,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>992</v>
       </c>
@@ -7781,15 +7321,10 @@
         <v>30</v>
       </c>
       <c r="X100">
-        <f>IFERROR(MATCH(B100,value1,0),0)</f>
-        <v>64</v>
-      </c>
-      <c r="Y100">
-        <f>IFERROR(INDEX(value, MATCH(B100,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>993</v>
       </c>
@@ -7854,15 +7389,10 @@
         <v>1426</v>
       </c>
       <c r="X101">
-        <f>IFERROR(MATCH(B101,value1,0),0)</f>
-        <v>65</v>
-      </c>
-      <c r="Y101">
-        <f>IFERROR(INDEX(value, MATCH(B101,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>994</v>
       </c>
@@ -7927,15 +7457,10 @@
         <v>828</v>
       </c>
       <c r="X102">
-        <f>IFERROR(MATCH(B102,value1,0),0)</f>
-        <v>66</v>
-      </c>
-      <c r="Y102">
-        <f>IFERROR(INDEX(value, MATCH(B102,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>995</v>
       </c>
@@ -8000,15 +7525,10 @@
         <v>788</v>
       </c>
       <c r="X103">
-        <f>IFERROR(MATCH(B103,value1,0),0)</f>
-        <v>67</v>
-      </c>
-      <c r="Y103">
-        <f>IFERROR(INDEX(value, MATCH(B103,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>996</v>
       </c>
@@ -8073,15 +7593,10 @@
         <v>882</v>
       </c>
       <c r="X104">
-        <f>IFERROR(MATCH(B104,value1,0),0)</f>
-        <v>68</v>
-      </c>
-      <c r="Y104">
-        <f>IFERROR(INDEX(value, MATCH(B104,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>997</v>
       </c>
@@ -8127,16 +7642,11 @@
       <c r="V105">
         <v>0</v>
       </c>
-      <c r="X105">
-        <f>IFERROR(MATCH(B105,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y105" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B105,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>998</v>
       </c>
@@ -8182,16 +7692,11 @@
       <c r="V106">
         <v>0</v>
       </c>
-      <c r="X106">
-        <f>IFERROR(MATCH(B106,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y106" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B106,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>999</v>
       </c>
@@ -8256,15 +7761,10 @@
         <v>203</v>
       </c>
       <c r="X107">
-        <f>IFERROR(MATCH(B107,value1,0),0)</f>
-        <v>69</v>
-      </c>
-      <c r="Y107">
-        <f>IFERROR(INDEX(value, MATCH(B107,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1000</v>
       </c>
@@ -8329,15 +7829,10 @@
         <v>-115</v>
       </c>
       <c r="X108">
-        <f>IFERROR(MATCH(B108,value1,0),0)</f>
-        <v>70</v>
-      </c>
-      <c r="Y108">
-        <f>IFERROR(INDEX(value, MATCH(B108,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1001</v>
       </c>
@@ -8402,15 +7897,10 @@
         <v>1151</v>
       </c>
       <c r="X109">
-        <f>IFERROR(MATCH(B109,value1,0),0)</f>
-        <v>71</v>
-      </c>
-      <c r="Y109">
-        <f>IFERROR(INDEX(value, MATCH(B109,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1002</v>
       </c>
@@ -8475,15 +7965,10 @@
         <v>86</v>
       </c>
       <c r="X110">
-        <f>IFERROR(MATCH(B110,value1,0),0)</f>
-        <v>72</v>
-      </c>
-      <c r="Y110">
-        <f>IFERROR(INDEX(value, MATCH(B110,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1003</v>
       </c>
@@ -8548,15 +8033,10 @@
         <v>-591</v>
       </c>
       <c r="X111">
-        <f>IFERROR(MATCH(B111,value1,0),0)</f>
-        <v>73</v>
-      </c>
-      <c r="Y111">
-        <f>IFERROR(INDEX(value, MATCH(B111,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1004</v>
       </c>
@@ -8602,16 +8082,11 @@
       <c r="V112">
         <v>0</v>
       </c>
-      <c r="X112">
-        <f>IFERROR(MATCH(B112,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y112" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B112,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1005</v>
       </c>
@@ -8657,16 +8132,11 @@
       <c r="V113">
         <v>0</v>
       </c>
-      <c r="X113">
-        <f>IFERROR(MATCH(B113,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y113" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B113,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1006</v>
       </c>
@@ -8712,16 +8182,11 @@
       <c r="V114">
         <v>0</v>
       </c>
-      <c r="X114">
-        <f>IFERROR(MATCH(B114,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y114" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B114,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1007</v>
       </c>
@@ -8786,15 +8251,10 @@
         <v>518</v>
       </c>
       <c r="X115">
-        <f>IFERROR(MATCH(B115,value1,0),0)</f>
-        <v>74</v>
-      </c>
-      <c r="Y115">
-        <f>IFERROR(INDEX(value, MATCH(B115,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1008</v>
       </c>
@@ -8859,15 +8319,10 @@
         <v>-2252</v>
       </c>
       <c r="X116">
-        <f>IFERROR(MATCH(B116,value1,0),0)</f>
-        <v>75</v>
-      </c>
-      <c r="Y116">
-        <f>IFERROR(INDEX(value, MATCH(B116,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1009</v>
       </c>
@@ -8932,15 +8387,10 @@
         <v>212</v>
       </c>
       <c r="X117">
-        <f>IFERROR(MATCH(B117,value1,0),0)</f>
-        <v>76</v>
-      </c>
-      <c r="Y117">
-        <f>IFERROR(INDEX(value, MATCH(B117,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1010</v>
       </c>
@@ -9005,15 +8455,10 @@
         <v>-192</v>
       </c>
       <c r="X118">
-        <f>IFERROR(MATCH(B118,value1,0),0)</f>
-        <v>77</v>
-      </c>
-      <c r="Y118">
-        <f>IFERROR(INDEX(value, MATCH(B118,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1011</v>
       </c>
@@ -9059,16 +8504,11 @@
       <c r="V119">
         <v>0</v>
       </c>
-      <c r="X119">
-        <f>IFERROR(MATCH(B119,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y119" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B119,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1012</v>
       </c>
@@ -9114,16 +8554,11 @@
       <c r="V120">
         <v>0</v>
       </c>
-      <c r="X120">
-        <f>IFERROR(MATCH(B120,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y120" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B120,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1013</v>
       </c>
@@ -9169,16 +8604,11 @@
       <c r="V121">
         <v>0</v>
       </c>
-      <c r="X121">
-        <f>IFERROR(MATCH(B121,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y121" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B121,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1014</v>
       </c>
@@ -9243,15 +8673,10 @@
         <v>-79</v>
       </c>
       <c r="X122">
-        <f>IFERROR(MATCH(B122,value1,0),0)</f>
-        <v>78</v>
-      </c>
-      <c r="Y122">
-        <f>IFERROR(INDEX(value, MATCH(B122,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1015</v>
       </c>
@@ -9316,15 +8741,10 @@
         <v>263</v>
       </c>
       <c r="X123">
-        <f>IFERROR(MATCH(B123,value1,0),0)</f>
-        <v>79</v>
-      </c>
-      <c r="Y123">
-        <f>IFERROR(INDEX(value, MATCH(B123,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1016</v>
       </c>
@@ -9389,15 +8809,10 @@
         <v>3702</v>
       </c>
       <c r="X124">
-        <f>IFERROR(MATCH(B124,value1,0),0)</f>
-        <v>80</v>
-      </c>
-      <c r="Y124">
-        <f>IFERROR(INDEX(value, MATCH(B124,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1017</v>
       </c>
@@ -9462,15 +8877,10 @@
         <v>-478</v>
       </c>
       <c r="X125">
-        <f>IFERROR(MATCH(B125,value1,0),0)</f>
-        <v>81</v>
-      </c>
-      <c r="Y125">
-        <f>IFERROR(INDEX(value, MATCH(B125,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1018</v>
       </c>
@@ -9516,16 +8926,11 @@
       <c r="V126">
         <v>0</v>
       </c>
-      <c r="X126">
-        <f>IFERROR(MATCH(B126,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y126" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B126,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1019</v>
       </c>
@@ -9571,16 +8976,11 @@
       <c r="V127">
         <v>0</v>
       </c>
-      <c r="X127">
-        <f>IFERROR(MATCH(B127,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y127" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B127,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1020</v>
       </c>
@@ -9645,15 +9045,10 @@
         <v>-3809</v>
       </c>
       <c r="X128">
-        <f>IFERROR(MATCH(B128,value1,0),0)</f>
-        <v>82</v>
-      </c>
-      <c r="Y128">
-        <f>IFERROR(INDEX(value, MATCH(B128,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1021</v>
       </c>
@@ -9718,15 +9113,10 @@
         <v>669</v>
       </c>
       <c r="X129">
-        <f>IFERROR(MATCH(B129,value1,0),0)</f>
-        <v>83</v>
-      </c>
-      <c r="Y129">
-        <f>IFERROR(INDEX(value, MATCH(B129,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1022</v>
       </c>
@@ -9791,15 +9181,10 @@
         <v>327</v>
       </c>
       <c r="X130">
-        <f>IFERROR(MATCH(B130,value1,0),0)</f>
-        <v>84</v>
-      </c>
-      <c r="Y130">
-        <f>IFERROR(INDEX(value, MATCH(B130,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1023</v>
       </c>
@@ -9864,15 +9249,10 @@
         <v>189</v>
       </c>
       <c r="X131">
-        <f>IFERROR(MATCH(B131,value1,0),0)</f>
-        <v>85</v>
-      </c>
-      <c r="Y131">
-        <f>IFERROR(INDEX(value, MATCH(B131,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1024</v>
       </c>
@@ -9937,15 +9317,10 @@
         <v>-103</v>
       </c>
       <c r="X132">
-        <f>IFERROR(MATCH(B132,value1,0),0)</f>
-        <v>86</v>
-      </c>
-      <c r="Y132">
-        <f>IFERROR(INDEX(value, MATCH(B132,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1025</v>
       </c>
@@ -9991,16 +9366,11 @@
       <c r="V133">
         <v>0</v>
       </c>
-      <c r="X133">
-        <f>IFERROR(MATCH(B133,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y133" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B133,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X133" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1026</v>
       </c>
@@ -10046,16 +9416,11 @@
       <c r="V134">
         <v>0</v>
       </c>
-      <c r="X134">
-        <f>IFERROR(MATCH(B134,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y134" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B134,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1027</v>
       </c>
@@ -10120,15 +9485,10 @@
         <v>-2174</v>
       </c>
       <c r="X135">
-        <f>IFERROR(MATCH(B135,value1,0),0)</f>
-        <v>87</v>
-      </c>
-      <c r="Y135">
-        <f>IFERROR(INDEX(value, MATCH(B135,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1028</v>
       </c>
@@ -10193,15 +9553,10 @@
         <v>-589</v>
       </c>
       <c r="X136">
-        <f>IFERROR(MATCH(B136,value1,0),0)</f>
-        <v>88</v>
-      </c>
-      <c r="Y136">
-        <f>IFERROR(INDEX(value, MATCH(B136,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1029</v>
       </c>
@@ -10266,15 +9621,10 @@
         <v>-469</v>
       </c>
       <c r="X137">
-        <f>IFERROR(MATCH(B137,value1,0),0)</f>
-        <v>89</v>
-      </c>
-      <c r="Y137">
-        <f>IFERROR(INDEX(value, MATCH(B137,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1030</v>
       </c>
@@ -10339,15 +9689,10 @@
         <v>-334</v>
       </c>
       <c r="X138">
-        <f>IFERROR(MATCH(B138,value1,0),0)</f>
-        <v>90</v>
-      </c>
-      <c r="Y138">
-        <f>IFERROR(INDEX(value, MATCH(B138,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1031</v>
       </c>
@@ -10412,15 +9757,10 @@
         <v>616</v>
       </c>
       <c r="X139">
-        <f>IFERROR(MATCH(B139,value1,0),0)</f>
-        <v>91</v>
-      </c>
-      <c r="Y139">
-        <f>IFERROR(INDEX(value, MATCH(B139,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1032</v>
       </c>
@@ -10466,16 +9806,11 @@
       <c r="V140">
         <v>0</v>
       </c>
-      <c r="X140">
-        <f>IFERROR(MATCH(B140,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y140" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B140,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X140" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1033</v>
       </c>
@@ -10521,16 +9856,11 @@
       <c r="V141">
         <v>0</v>
       </c>
-      <c r="X141">
-        <f>IFERROR(MATCH(B141,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y141" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B141,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1034</v>
       </c>
@@ -10595,15 +9925,10 @@
         <v>-879</v>
       </c>
       <c r="X142">
-        <f>IFERROR(MATCH(B142,value1,0),0)</f>
-        <v>92</v>
-      </c>
-      <c r="Y142">
-        <f>IFERROR(INDEX(value, MATCH(B142,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1035</v>
       </c>
@@ -10668,15 +9993,10 @@
         <v>-164</v>
       </c>
       <c r="X143">
-        <f>IFERROR(MATCH(B143,value1,0),0)</f>
-        <v>93</v>
-      </c>
-      <c r="Y143">
-        <f>IFERROR(INDEX(value, MATCH(B143,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1036</v>
       </c>
@@ -10741,15 +10061,10 @@
         <v>-496</v>
       </c>
       <c r="X144">
-        <f>IFERROR(MATCH(B144,value1,0),0)</f>
-        <v>94</v>
-      </c>
-      <c r="Y144">
-        <f>IFERROR(INDEX(value, MATCH(B144,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1037</v>
       </c>
@@ -10814,15 +10129,10 @@
         <v>727</v>
       </c>
       <c r="X145">
-        <f>IFERROR(MATCH(B145,value1,0),0)</f>
-        <v>95</v>
-      </c>
-      <c r="Y145">
-        <f>IFERROR(INDEX(value, MATCH(B145,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1038</v>
       </c>
@@ -10887,15 +10197,10 @@
         <v>-435</v>
       </c>
       <c r="X146">
-        <f>IFERROR(MATCH(B146,value1,0),0)</f>
-        <v>96</v>
-      </c>
-      <c r="Y146">
-        <f>IFERROR(INDEX(value, MATCH(B146,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1039</v>
       </c>
@@ -10941,16 +10246,11 @@
       <c r="V147">
         <v>0</v>
       </c>
-      <c r="X147">
-        <f>IFERROR(MATCH(B147,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y147" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B147,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1040</v>
       </c>
@@ -10996,16 +10296,11 @@
       <c r="V148">
         <v>0</v>
       </c>
-      <c r="X148">
-        <f>IFERROR(MATCH(B148,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y148" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B148,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X148" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1041</v>
       </c>
@@ -11070,15 +10365,10 @@
         <v>-16</v>
       </c>
       <c r="X149">
-        <f>IFERROR(MATCH(B149,value1,0),0)</f>
-        <v>97</v>
-      </c>
-      <c r="Y149">
-        <f>IFERROR(INDEX(value, MATCH(B149,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1042</v>
       </c>
@@ -11143,15 +10433,10 @@
         <v>-718</v>
       </c>
       <c r="X150">
-        <f>IFERROR(MATCH(B150,value1,0),0)</f>
-        <v>98</v>
-      </c>
-      <c r="Y150">
-        <f>IFERROR(INDEX(value, MATCH(B150,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1043</v>
       </c>
@@ -11216,15 +10501,10 @@
         <v>-1056</v>
       </c>
       <c r="X151">
-        <f>IFERROR(MATCH(B151,value1,0),0)</f>
-        <v>99</v>
-      </c>
-      <c r="Y151">
-        <f>IFERROR(INDEX(value, MATCH(B151,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1044</v>
       </c>
@@ -11289,15 +10569,10 @@
         <v>811</v>
       </c>
       <c r="X152">
-        <f>IFERROR(MATCH(B152,value1,0),0)</f>
-        <v>100</v>
-      </c>
-      <c r="Y152">
-        <f>IFERROR(INDEX(value, MATCH(B152,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1045</v>
       </c>
@@ -11362,15 +10637,10 @@
         <v>-2060</v>
       </c>
       <c r="X153">
-        <f>IFERROR(MATCH(B153,value1,0),0)</f>
-        <v>101</v>
-      </c>
-      <c r="Y153">
-        <f>IFERROR(INDEX(value, MATCH(B153,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1046</v>
       </c>
@@ -11416,16 +10686,11 @@
       <c r="V154">
         <v>0</v>
       </c>
-      <c r="X154">
-        <f>IFERROR(MATCH(B154,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y154" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B154,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X154" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1047</v>
       </c>
@@ -11471,16 +10736,11 @@
       <c r="V155">
         <v>0</v>
       </c>
-      <c r="X155">
-        <f>IFERROR(MATCH(B155,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y155" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B155,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X155" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1048</v>
       </c>
@@ -11545,15 +10805,10 @@
         <v>335</v>
       </c>
       <c r="X156">
-        <f>IFERROR(MATCH(B156,value1,0),0)</f>
-        <v>102</v>
-      </c>
-      <c r="Y156">
-        <f>IFERROR(INDEX(value, MATCH(B156,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1049</v>
       </c>
@@ -11618,15 +10873,10 @@
         <v>-695</v>
       </c>
       <c r="X157">
-        <f>IFERROR(MATCH(B157,value1,0),0)</f>
-        <v>103</v>
-      </c>
-      <c r="Y157">
-        <f>IFERROR(INDEX(value, MATCH(B157,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1050</v>
       </c>
@@ -11691,15 +10941,10 @@
         <v>-357</v>
       </c>
       <c r="X158">
-        <f>IFERROR(MATCH(B158,value1,0),0)</f>
-        <v>104</v>
-      </c>
-      <c r="Y158">
-        <f>IFERROR(INDEX(value, MATCH(B158,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1051</v>
       </c>
@@ -11764,15 +11009,10 @@
         <v>48</v>
       </c>
       <c r="X159">
-        <f>IFERROR(MATCH(B159,value1,0),0)</f>
-        <v>105</v>
-      </c>
-      <c r="Y159">
-        <f>IFERROR(INDEX(value, MATCH(B159,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1052</v>
       </c>
@@ -11837,15 +11077,10 @@
         <v>-85</v>
       </c>
       <c r="X160">
-        <f>IFERROR(MATCH(B160,value1,0),0)</f>
-        <v>106</v>
-      </c>
-      <c r="Y160">
-        <f>IFERROR(INDEX(value, MATCH(B160,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1053</v>
       </c>
@@ -11891,16 +11126,11 @@
       <c r="V161">
         <v>0</v>
       </c>
-      <c r="X161">
-        <f>IFERROR(MATCH(B161,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y161" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B161,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1054</v>
       </c>
@@ -11946,16 +11176,11 @@
       <c r="V162">
         <v>0</v>
       </c>
-      <c r="X162">
-        <f>IFERROR(MATCH(B162,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y162" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B162,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1055</v>
       </c>
@@ -12020,15 +11245,10 @@
         <v>57</v>
       </c>
       <c r="X163">
-        <f>IFERROR(MATCH(B163,value1,0),0)</f>
-        <v>107</v>
-      </c>
-      <c r="Y163">
-        <f>IFERROR(INDEX(value, MATCH(B163,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1056</v>
       </c>
@@ -12093,15 +11313,10 @@
         <v>-134</v>
       </c>
       <c r="X164">
-        <f>IFERROR(MATCH(B164,value1,0),0)</f>
-        <v>108</v>
-      </c>
-      <c r="Y164">
-        <f>IFERROR(INDEX(value, MATCH(B164,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1057</v>
       </c>
@@ -12166,15 +11381,10 @@
         <v>-158</v>
       </c>
       <c r="X165">
-        <f>IFERROR(MATCH(B165,value1,0),0)</f>
-        <v>109</v>
-      </c>
-      <c r="Y165">
-        <f>IFERROR(INDEX(value, MATCH(B165,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1058</v>
       </c>
@@ -12239,15 +11449,10 @@
         <v>-154</v>
       </c>
       <c r="X166">
-        <f>IFERROR(MATCH(B166,value1,0),0)</f>
-        <v>110</v>
-      </c>
-      <c r="Y166">
-        <f>IFERROR(INDEX(value, MATCH(B166,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1059</v>
       </c>
@@ -12312,15 +11517,10 @@
         <v>348</v>
       </c>
       <c r="X167">
-        <f>IFERROR(MATCH(B167,value1,0),0)</f>
-        <v>111</v>
-      </c>
-      <c r="Y167">
-        <f>IFERROR(INDEX(value, MATCH(B167,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1060</v>
       </c>
@@ -12366,16 +11566,11 @@
       <c r="V168">
         <v>0</v>
       </c>
-      <c r="X168">
-        <f>IFERROR(MATCH(B168,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y168" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B168,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X168" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1061</v>
       </c>
@@ -12421,16 +11616,11 @@
       <c r="V169">
         <v>0</v>
       </c>
-      <c r="X169">
-        <f>IFERROR(MATCH(B169,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y169" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B169,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X169" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1062</v>
       </c>
@@ -12495,15 +11685,10 @@
         <v>337</v>
       </c>
       <c r="X170">
-        <f>IFERROR(MATCH(B170,value1,0),0)</f>
-        <v>112</v>
-      </c>
-      <c r="Y170">
-        <f>IFERROR(INDEX(value, MATCH(B170,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1063</v>
       </c>
@@ -12568,15 +11753,10 @@
         <v>-1134</v>
       </c>
       <c r="X171">
-        <f>IFERROR(MATCH(B171,value1,0),0)</f>
-        <v>113</v>
-      </c>
-      <c r="Y171">
-        <f>IFERROR(INDEX(value, MATCH(B171,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1064</v>
       </c>
@@ -12641,15 +11821,10 @@
         <v>-849</v>
       </c>
       <c r="X172">
-        <f>IFERROR(MATCH(B172,value1,0),0)</f>
-        <v>114</v>
-      </c>
-      <c r="Y172">
-        <f>IFERROR(INDEX(value, MATCH(B172,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1065</v>
       </c>
@@ -12714,15 +11889,10 @@
         <v>-1246</v>
       </c>
       <c r="X173">
-        <f>IFERROR(MATCH(B173,value1,0),0)</f>
-        <v>115</v>
-      </c>
-      <c r="Y173">
-        <f>IFERROR(INDEX(value, MATCH(B173,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1066</v>
       </c>
@@ -12787,15 +11957,10 @@
         <v>1289</v>
       </c>
       <c r="X174">
-        <f>IFERROR(MATCH(B174,value1,0),0)</f>
-        <v>116</v>
-      </c>
-      <c r="Y174">
-        <f>IFERROR(INDEX(value, MATCH(B174,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1067</v>
       </c>
@@ -12841,16 +12006,11 @@
       <c r="V175">
         <v>0</v>
       </c>
-      <c r="X175">
-        <f>IFERROR(MATCH(B175,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y175" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B175,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X175" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1068</v>
       </c>
@@ -12896,16 +12056,11 @@
       <c r="V176">
         <v>0</v>
       </c>
-      <c r="X176">
-        <f>IFERROR(MATCH(B176,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y176" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B176,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X176" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1069</v>
       </c>
@@ -12970,15 +12125,10 @@
         <v>-13</v>
       </c>
       <c r="X177">
-        <f>IFERROR(MATCH(B177,value1,0),0)</f>
-        <v>117</v>
-      </c>
-      <c r="Y177">
-        <f>IFERROR(INDEX(value, MATCH(B177,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1070</v>
       </c>
@@ -13042,16 +12192,11 @@
       <c r="V178">
         <v>742</v>
       </c>
-      <c r="X178">
-        <f>IFERROR(MATCH(B178,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y178" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B178,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1071</v>
       </c>
@@ -13116,15 +12261,10 @@
         <v>499</v>
       </c>
       <c r="X179">
-        <f>IFERROR(MATCH(B179,value1,0),0)</f>
-        <v>118</v>
-      </c>
-      <c r="Y179">
-        <f>IFERROR(INDEX(value, MATCH(B179,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1072</v>
       </c>
@@ -13188,16 +12328,11 @@
       <c r="V180">
         <v>75</v>
       </c>
-      <c r="X180">
-        <f>IFERROR(MATCH(B180,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y180" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B180,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X180" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1073</v>
       </c>
@@ -13262,15 +12397,10 @@
         <v>-383</v>
       </c>
       <c r="X181">
-        <f>IFERROR(MATCH(B181,value1,0),0)</f>
-        <v>119</v>
-      </c>
-      <c r="Y181">
-        <f>IFERROR(INDEX(value, MATCH(B181,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1074</v>
       </c>
@@ -13316,16 +12446,11 @@
       <c r="V182">
         <v>0</v>
       </c>
-      <c r="X182">
-        <f>IFERROR(MATCH(B182,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y182" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B182,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1075</v>
       </c>
@@ -13371,16 +12496,11 @@
       <c r="V183">
         <v>0</v>
       </c>
-      <c r="X183">
-        <f>IFERROR(MATCH(B183,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y183" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B183,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X183" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1076</v>
       </c>
@@ -13445,15 +12565,10 @@
         <v>35</v>
       </c>
       <c r="X184">
-        <f>IFERROR(MATCH(B184,value1,0),0)</f>
-        <v>120</v>
-      </c>
-      <c r="Y184">
-        <f>IFERROR(INDEX(value, MATCH(B184,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1077</v>
       </c>
@@ -13518,15 +12633,10 @@
         <v>298</v>
       </c>
       <c r="X185">
-        <f>IFERROR(MATCH(B185,value1,0),0)</f>
-        <v>121</v>
-      </c>
-      <c r="Y185">
-        <f>IFERROR(INDEX(value, MATCH(B185,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1078</v>
       </c>
@@ -13591,15 +12701,10 @@
         <v>-647</v>
       </c>
       <c r="X186">
-        <f>IFERROR(MATCH(B186,value1,0),0)</f>
-        <v>122</v>
-      </c>
-      <c r="Y186">
-        <f>IFERROR(INDEX(value, MATCH(B186,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1079</v>
       </c>
@@ -13664,15 +12769,10 @@
         <v>686</v>
       </c>
       <c r="X187">
-        <f>IFERROR(MATCH(B187,value1,0),0)</f>
-        <v>123</v>
-      </c>
-      <c r="Y187">
-        <f>IFERROR(INDEX(value, MATCH(B187,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1080</v>
       </c>
@@ -13737,15 +12837,10 @@
         <v>-251</v>
       </c>
       <c r="X188">
-        <f>IFERROR(MATCH(B188,value1,0),0)</f>
-        <v>124</v>
-      </c>
-      <c r="Y188">
-        <f>IFERROR(INDEX(value, MATCH(B188,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1081</v>
       </c>
@@ -13791,16 +12886,11 @@
       <c r="V189">
         <v>0</v>
       </c>
-      <c r="X189">
-        <f>IFERROR(MATCH(B189,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y189" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B189,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X189" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1082</v>
       </c>
@@ -13846,16 +12936,11 @@
       <c r="V190">
         <v>0</v>
       </c>
-      <c r="X190">
-        <f>IFERROR(MATCH(B190,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y190" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B190,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X190" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1083</v>
       </c>
@@ -13920,15 +13005,10 @@
         <v>-500</v>
       </c>
       <c r="X191">
-        <f>IFERROR(MATCH(B191,value1,0),0)</f>
-        <v>125</v>
-      </c>
-      <c r="Y191">
-        <f>IFERROR(INDEX(value, MATCH(B191,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1084</v>
       </c>
@@ -13993,15 +13073,10 @@
         <v>195</v>
       </c>
       <c r="X192">
-        <f>IFERROR(MATCH(B192,value1,0),0)</f>
-        <v>126</v>
-      </c>
-      <c r="Y192">
-        <f>IFERROR(INDEX(value, MATCH(B192,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1085</v>
       </c>
@@ -14066,15 +13141,10 @@
         <v>340</v>
       </c>
       <c r="X193">
-        <f>IFERROR(MATCH(B193,value1,0),0)</f>
-        <v>127</v>
-      </c>
-      <c r="Y193">
-        <f>IFERROR(INDEX(value, MATCH(B193,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1086</v>
       </c>
@@ -14138,16 +13208,11 @@
       <c r="V194">
         <v>-223</v>
       </c>
-      <c r="X194">
-        <f>IFERROR(MATCH(B194,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y194" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B194,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X194" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1087</v>
       </c>
@@ -14212,15 +13277,10 @@
         <v>-416</v>
       </c>
       <c r="X195">
-        <f>IFERROR(MATCH(B195,value1,0),0)</f>
-        <v>128</v>
-      </c>
-      <c r="Y195">
-        <f>IFERROR(INDEX(value, MATCH(B195,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1088</v>
       </c>
@@ -14266,16 +13326,11 @@
       <c r="V196">
         <v>0</v>
       </c>
-      <c r="X196">
-        <f>IFERROR(MATCH(B196,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y196" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B196,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X196" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1089</v>
       </c>
@@ -14321,16 +13376,11 @@
       <c r="V197">
         <v>0</v>
       </c>
-      <c r="X197">
-        <f>IFERROR(MATCH(B197,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y197" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B197,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X197" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1090</v>
       </c>
@@ -14395,15 +13445,10 @@
         <v>-531</v>
       </c>
       <c r="X198">
-        <f>IFERROR(MATCH(B198,value1,0),0)</f>
-        <v>129</v>
-      </c>
-      <c r="Y198">
-        <f>IFERROR(INDEX(value, MATCH(B198,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1091</v>
       </c>
@@ -14468,15 +13513,10 @@
         <v>-498</v>
       </c>
       <c r="X199">
-        <f>IFERROR(MATCH(B199,value1,0),0)</f>
-        <v>130</v>
-      </c>
-      <c r="Y199">
-        <f>IFERROR(INDEX(value, MATCH(B199,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1092</v>
       </c>
@@ -14541,15 +13581,10 @@
         <v>886</v>
       </c>
       <c r="X200">
-        <f>IFERROR(MATCH(B200,value1,0),0)</f>
-        <v>131</v>
-      </c>
-      <c r="Y200">
-        <f>IFERROR(INDEX(value, MATCH(B200,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1093</v>
       </c>
@@ -14614,15 +13649,10 @@
         <v>913</v>
       </c>
       <c r="X201">
-        <f>IFERROR(MATCH(B201,value1,0),0)</f>
-        <v>132</v>
-      </c>
-      <c r="Y201">
-        <f>IFERROR(INDEX(value, MATCH(B201,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1094</v>
       </c>
@@ -14668,16 +13698,11 @@
       <c r="V202">
         <v>0</v>
       </c>
-      <c r="X202">
-        <f>IFERROR(MATCH(B202,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y202" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B202,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X202" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1095</v>
       </c>
@@ -14723,16 +13748,11 @@
       <c r="V203">
         <v>0</v>
       </c>
-      <c r="X203">
-        <f>IFERROR(MATCH(B203,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y203" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B203,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X203" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1096</v>
       </c>
@@ -14778,16 +13798,11 @@
       <c r="V204">
         <v>0</v>
       </c>
-      <c r="X204">
-        <f>IFERROR(MATCH(B204,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y204" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B204,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X204" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1097</v>
       </c>
@@ -14852,15 +13867,10 @@
         <v>260</v>
       </c>
       <c r="X205">
-        <f>IFERROR(MATCH(B205,value1,0),0)</f>
-        <v>133</v>
-      </c>
-      <c r="Y205">
-        <f>IFERROR(INDEX(value, MATCH(B205,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1098</v>
       </c>
@@ -14925,15 +13935,10 @@
         <v>526</v>
       </c>
       <c r="X206">
-        <f>IFERROR(MATCH(B206,value1,0),0)</f>
-        <v>134</v>
-      </c>
-      <c r="Y206">
-        <f>IFERROR(INDEX(value, MATCH(B206,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1099</v>
       </c>
@@ -14998,15 +14003,10 @@
         <v>-519</v>
       </c>
       <c r="X207">
-        <f>IFERROR(MATCH(B207,value1,0),0)</f>
-        <v>135</v>
-      </c>
-      <c r="Y207">
-        <f>IFERROR(INDEX(value, MATCH(B207,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1100</v>
       </c>
@@ -15071,15 +14071,10 @@
         <v>-349</v>
       </c>
       <c r="X208">
-        <f>IFERROR(MATCH(B208,value1,0),0)</f>
-        <v>136</v>
-      </c>
-      <c r="Y208">
-        <f>IFERROR(INDEX(value, MATCH(B208,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1101</v>
       </c>
@@ -15144,15 +14139,10 @@
         <v>-508</v>
       </c>
       <c r="X209">
-        <f>IFERROR(MATCH(B209,value1,0),0)</f>
-        <v>137</v>
-      </c>
-      <c r="Y209">
-        <f>IFERROR(INDEX(value, MATCH(B209,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1102</v>
       </c>
@@ -15198,16 +14188,11 @@
       <c r="V210">
         <v>0</v>
       </c>
-      <c r="X210">
-        <f>IFERROR(MATCH(B210,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y210" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B210,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X210" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1103</v>
       </c>
@@ -15253,16 +14238,11 @@
       <c r="V211">
         <v>0</v>
       </c>
-      <c r="X211">
-        <f>IFERROR(MATCH(B211,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y211" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B211,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X211" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1104</v>
       </c>
@@ -15327,15 +14307,10 @@
         <v>-996</v>
       </c>
       <c r="X212">
-        <f>IFERROR(MATCH(B212,value1,0),0)</f>
-        <v>138</v>
-      </c>
-      <c r="Y212">
-        <f>IFERROR(INDEX(value, MATCH(B212,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1105</v>
       </c>
@@ -15400,15 +14375,10 @@
         <v>-176</v>
       </c>
       <c r="X213">
-        <f>IFERROR(MATCH(B213,value1,0),0)</f>
-        <v>139</v>
-      </c>
-      <c r="Y213">
-        <f>IFERROR(INDEX(value, MATCH(B213,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1106</v>
       </c>
@@ -15473,15 +14443,10 @@
         <v>-247</v>
       </c>
       <c r="X214">
-        <f>IFERROR(MATCH(B214,value1,0),0)</f>
-        <v>140</v>
-      </c>
-      <c r="Y214">
-        <f>IFERROR(INDEX(value, MATCH(B214,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1107</v>
       </c>
@@ -15546,15 +14511,10 @@
         <v>-9</v>
       </c>
       <c r="X215">
-        <f>IFERROR(MATCH(B215,value1,0),0)</f>
-        <v>141</v>
-      </c>
-      <c r="Y215">
-        <f>IFERROR(INDEX(value, MATCH(B215,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1108</v>
       </c>
@@ -15619,15 +14579,10 @@
         <v>-486</v>
       </c>
       <c r="X216">
-        <f>IFERROR(MATCH(B216,value1,0),0)</f>
-        <v>142</v>
-      </c>
-      <c r="Y216">
-        <f>IFERROR(INDEX(value, MATCH(B216,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1109</v>
       </c>
@@ -15673,16 +14628,11 @@
       <c r="V217">
         <v>0</v>
       </c>
-      <c r="X217">
-        <f>IFERROR(MATCH(B217,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y217" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B217,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X217" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1110</v>
       </c>
@@ -15728,16 +14678,11 @@
       <c r="V218">
         <v>0</v>
       </c>
-      <c r="X218">
-        <f>IFERROR(MATCH(B218,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y218" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B218,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X218" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1111</v>
       </c>
@@ -15802,15 +14747,10 @@
         <v>-777</v>
       </c>
       <c r="X219">
-        <f>IFERROR(MATCH(B219,value1,0),0)</f>
-        <v>143</v>
-      </c>
-      <c r="Y219">
-        <f>IFERROR(INDEX(value, MATCH(B219,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1112</v>
       </c>
@@ -15875,15 +14815,10 @@
         <v>-352</v>
       </c>
       <c r="X220">
-        <f>IFERROR(MATCH(B220,value1,0),0)</f>
-        <v>144</v>
-      </c>
-      <c r="Y220">
-        <f>IFERROR(INDEX(value, MATCH(B220,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1113</v>
       </c>
@@ -15948,15 +14883,10 @@
         <v>33</v>
       </c>
       <c r="X221">
-        <f>IFERROR(MATCH(B221,value1,0),0)</f>
-        <v>145</v>
-      </c>
-      <c r="Y221">
-        <f>IFERROR(INDEX(value, MATCH(B221,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1114</v>
       </c>
@@ -16021,15 +14951,10 @@
         <v>-1148</v>
       </c>
       <c r="X222">
-        <f>IFERROR(MATCH(B222,value1,0),0)</f>
-        <v>146</v>
-      </c>
-      <c r="Y222">
-        <f>IFERROR(INDEX(value, MATCH(B222,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1115</v>
       </c>
@@ -16094,15 +15019,10 @@
         <v>-371</v>
       </c>
       <c r="X223">
-        <f>IFERROR(MATCH(B223,value1,0),0)</f>
-        <v>147</v>
-      </c>
-      <c r="Y223">
-        <f>IFERROR(INDEX(value, MATCH(B223,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1116</v>
       </c>
@@ -16148,16 +15068,11 @@
       <c r="V224">
         <v>0</v>
       </c>
-      <c r="X224">
-        <f>IFERROR(MATCH(B224,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y224" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B224,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1117</v>
       </c>
@@ -16203,16 +15118,11 @@
       <c r="V225">
         <v>0</v>
       </c>
-      <c r="X225">
-        <f>IFERROR(MATCH(B225,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y225" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B225,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X225" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1118</v>
       </c>
@@ -16258,16 +15168,11 @@
       <c r="V226">
         <v>0</v>
       </c>
-      <c r="X226">
-        <f>IFERROR(MATCH(B226,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y226" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B226,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X226" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1119</v>
       </c>
@@ -16313,16 +15218,11 @@
       <c r="V227">
         <v>0</v>
       </c>
-      <c r="X227">
-        <f>IFERROR(MATCH(B227,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y227" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B227,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1120</v>
       </c>
@@ -16387,15 +15287,10 @@
         <v>-1550</v>
       </c>
       <c r="X228">
-        <f>IFERROR(MATCH(B228,value1,0),0)</f>
-        <v>148</v>
-      </c>
-      <c r="Y228">
-        <f>IFERROR(INDEX(value, MATCH(B228,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1121</v>
       </c>
@@ -16460,15 +15355,10 @@
         <v>-684</v>
       </c>
       <c r="X229">
-        <f>IFERROR(MATCH(B229,value1,0),0)</f>
-        <v>149</v>
-      </c>
-      <c r="Y229">
-        <f>IFERROR(INDEX(value, MATCH(B229,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1122</v>
       </c>
@@ -16533,15 +15423,10 @@
         <v>-1131</v>
       </c>
       <c r="X230">
-        <f>IFERROR(MATCH(B230,value1,0),0)</f>
-        <v>150</v>
-      </c>
-      <c r="Y230">
-        <f>IFERROR(INDEX(value, MATCH(B230,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1123</v>
       </c>
@@ -16587,16 +15472,11 @@
       <c r="V231">
         <v>0</v>
       </c>
-      <c r="X231">
-        <f>IFERROR(MATCH(B231,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y231" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B231,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X231" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1124</v>
       </c>
@@ -16642,16 +15522,11 @@
       <c r="V232">
         <v>0</v>
       </c>
-      <c r="X232">
-        <f>IFERROR(MATCH(B232,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y232" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B232,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X232" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1125</v>
       </c>
@@ -16716,15 +15591,10 @@
         <v>-149</v>
       </c>
       <c r="X233">
-        <f>IFERROR(MATCH(B233,value1,0),0)</f>
-        <v>151</v>
-      </c>
-      <c r="Y233">
-        <f>IFERROR(INDEX(value, MATCH(B233,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1126</v>
       </c>
@@ -16789,15 +15659,10 @@
         <v>1634</v>
       </c>
       <c r="X234">
-        <f>IFERROR(MATCH(B234,value1,0),0)</f>
-        <v>152</v>
-      </c>
-      <c r="Y234">
-        <f>IFERROR(INDEX(value, MATCH(B234,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1127</v>
       </c>
@@ -16862,15 +15727,10 @@
         <v>375</v>
       </c>
       <c r="X235">
-        <f>IFERROR(MATCH(B235,value1,0),0)</f>
-        <v>153</v>
-      </c>
-      <c r="Y235">
-        <f>IFERROR(INDEX(value, MATCH(B235,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1128</v>
       </c>
@@ -16935,15 +15795,10 @@
         <v>-875</v>
       </c>
       <c r="X236">
-        <f>IFERROR(MATCH(B236,value1,0),0)</f>
-        <v>154</v>
-      </c>
-      <c r="Y236">
-        <f>IFERROR(INDEX(value, MATCH(B236,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1129</v>
       </c>
@@ -17008,15 +15863,10 @@
         <v>-144</v>
       </c>
       <c r="X237">
-        <f>IFERROR(MATCH(B237,value1,0),0)</f>
-        <v>155</v>
-      </c>
-      <c r="Y237">
-        <f>IFERROR(INDEX(value, MATCH(B237,value1,0), 3), "")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1130</v>
       </c>
@@ -17062,16 +15912,11 @@
       <c r="V238">
         <v>0</v>
       </c>
-      <c r="X238">
-        <f>IFERROR(MATCH(B238,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y238" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B238,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X238" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1131</v>
       </c>
@@ -17117,16 +15962,11 @@
       <c r="V239">
         <v>0</v>
       </c>
-      <c r="X239">
-        <f>IFERROR(MATCH(B239,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y239" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B239,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X239" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1132</v>
       </c>
@@ -17191,15 +16031,10 @@
         <v>895</v>
       </c>
       <c r="X240">
-        <f>IFERROR(MATCH(B240,value1,0),0)</f>
-        <v>156</v>
-      </c>
-      <c r="Y240">
-        <f>IFERROR(INDEX(value, MATCH(B240,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1133</v>
       </c>
@@ -17264,15 +16099,10 @@
         <v>-35</v>
       </c>
       <c r="X241">
-        <f>IFERROR(MATCH(B241,value1,0),0)</f>
-        <v>157</v>
-      </c>
-      <c r="Y241">
-        <f>IFERROR(INDEX(value, MATCH(B241,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1134</v>
       </c>
@@ -17337,15 +16167,10 @@
         <v>-352</v>
       </c>
       <c r="X242">
-        <f>IFERROR(MATCH(B242,value1,0),0)</f>
-        <v>158</v>
-      </c>
-      <c r="Y242">
-        <f>IFERROR(INDEX(value, MATCH(B242,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1135</v>
       </c>
@@ -17410,15 +16235,10 @@
         <v>79</v>
       </c>
       <c r="X243">
-        <f>IFERROR(MATCH(B243,value1,0),0)</f>
-        <v>159</v>
-      </c>
-      <c r="Y243">
-        <f>IFERROR(INDEX(value, MATCH(B243,value1,0), 3), "")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1136</v>
       </c>
@@ -17483,15 +16303,10 @@
         <v>125</v>
       </c>
       <c r="X244">
-        <f>IFERROR(MATCH(B244,value1,0),0)</f>
-        <v>160</v>
-      </c>
-      <c r="Y244">
-        <f>IFERROR(INDEX(value, MATCH(B244,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1137</v>
       </c>
@@ -17537,16 +16352,11 @@
       <c r="V245">
         <v>0</v>
       </c>
-      <c r="X245">
-        <f>IFERROR(MATCH(B245,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y245" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B245,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X245" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1138</v>
       </c>
@@ -17592,16 +16402,11 @@
       <c r="V246">
         <v>0</v>
       </c>
-      <c r="X246">
-        <f>IFERROR(MATCH(B246,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y246" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B246,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X246" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1139</v>
       </c>
@@ -17665,16 +16470,11 @@
       <c r="V247">
         <v>-138</v>
       </c>
-      <c r="X247">
-        <f>IFERROR(MATCH(B247,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y247" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B247,value1,0), 3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X247" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1140</v>
       </c>
@@ -17738,23 +16538,19 @@
       <c r="V248">
         <v>0</v>
       </c>
-      <c r="X248">
-        <f>IFERROR(MATCH(B248,value1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y248" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B248,value1,0), 3), "")</f>
-        <v/>
+      <c r="X248" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA248"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -17896,11 +16692,11 @@
         <v>1430</v>
       </c>
       <c r="X2">
-        <f>IFERROR(MATCH(B2,value1,0),0)</f>
+        <f t="shared" ref="X2:X65" si="0">IFERROR(MATCH(B2,value1,0),0)</f>
         <v>0</v>
       </c>
       <c r="Y2" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B2,value1,0), 3), "")</f>
+        <f t="shared" ref="Y2:Y65" si="1">IFERROR(INDEX(value, MATCH(B2,value1,0), 3), "")</f>
         <v/>
       </c>
       <c r="AA2">
@@ -17973,11 +16769,11 @@
         <v>1015</v>
       </c>
       <c r="X3">
-        <f>IFERROR(MATCH(B3,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B3,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA3">
@@ -18050,11 +16846,11 @@
         <v>351</v>
       </c>
       <c r="X4">
-        <f>IFERROR(MATCH(B4,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y4" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B4,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -18123,11 +16919,11 @@
         <v>1199</v>
       </c>
       <c r="X5">
-        <f>IFERROR(MATCH(B5,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y5" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B5,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -18196,11 +16992,11 @@
         <v>2296</v>
       </c>
       <c r="X6">
-        <f>IFERROR(MATCH(B6,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y6" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B6,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -18251,11 +17047,11 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <f>IFERROR(MATCH(B7,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y7" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B7,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -18306,11 +17102,11 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <f>IFERROR(MATCH(B8,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y8" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B8,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -18379,11 +17175,11 @@
         <v>778</v>
       </c>
       <c r="X9">
-        <f>IFERROR(MATCH(B9,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Y9">
-        <f>IFERROR(INDEX(value, MATCH(B9,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z9" s="1"/>
@@ -18453,11 +17249,11 @@
         <v>-413</v>
       </c>
       <c r="X10">
-        <f>IFERROR(MATCH(B10,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y10">
-        <f>IFERROR(INDEX(value, MATCH(B10,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -18526,11 +17322,11 @@
         <v>314</v>
       </c>
       <c r="X11">
-        <f>IFERROR(MATCH(B11,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y11">
-        <f>IFERROR(INDEX(value, MATCH(B11,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -18599,11 +17395,11 @@
         <v>-257</v>
       </c>
       <c r="X12">
-        <f>IFERROR(MATCH(B12,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Y12">
-        <f>IFERROR(INDEX(value, MATCH(B12,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -18672,11 +17468,11 @@
         <v>532</v>
       </c>
       <c r="X13">
-        <f>IFERROR(MATCH(B13,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Y13">
-        <f>IFERROR(INDEX(value, MATCH(B13,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -18727,11 +17523,11 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <f>IFERROR(MATCH(B14,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y14" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B14,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -18782,11 +17578,11 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <f>IFERROR(MATCH(B15,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y15" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B15,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -18855,11 +17651,11 @@
         <v>-775</v>
       </c>
       <c r="X16">
-        <f>IFERROR(MATCH(B16,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Y16">
-        <f>IFERROR(INDEX(value, MATCH(B16,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -18928,11 +17724,11 @@
         <v>-92</v>
       </c>
       <c r="X17">
-        <f>IFERROR(MATCH(B17,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Y17">
-        <f>IFERROR(INDEX(value, MATCH(B17,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -19001,11 +17797,11 @@
         <v>2451</v>
       </c>
       <c r="X18">
-        <f>IFERROR(MATCH(B18,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Y18">
-        <f>IFERROR(INDEX(value, MATCH(B18,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -19074,11 +17870,11 @@
         <v>724</v>
       </c>
       <c r="X19">
-        <f>IFERROR(MATCH(B19,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Y19">
-        <f>IFERROR(INDEX(value, MATCH(B19,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -19147,11 +17943,11 @@
         <v>856</v>
       </c>
       <c r="X20">
-        <f>IFERROR(MATCH(B20,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="Y20">
-        <f>IFERROR(INDEX(value, MATCH(B20,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19202,11 +17998,11 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <f>IFERROR(MATCH(B21,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y21" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B21,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19257,11 +18053,11 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <f>IFERROR(MATCH(B22,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y22" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B22,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19330,11 +18126,11 @@
         <v>-1147</v>
       </c>
       <c r="X23">
-        <f>IFERROR(MATCH(B23,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Y23">
-        <f>IFERROR(INDEX(value, MATCH(B23,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -19403,11 +18199,11 @@
         <v>746</v>
       </c>
       <c r="X24">
-        <f>IFERROR(MATCH(B24,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="Y24">
-        <f>IFERROR(INDEX(value, MATCH(B24,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19476,11 +18272,11 @@
         <v>282</v>
       </c>
       <c r="X25">
-        <f>IFERROR(MATCH(B25,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Y25">
-        <f>IFERROR(INDEX(value, MATCH(B25,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19549,11 +18345,11 @@
         <v>-870</v>
       </c>
       <c r="X26">
-        <f>IFERROR(MATCH(B26,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="Y26">
-        <f>IFERROR(INDEX(value, MATCH(B26,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -19622,11 +18418,11 @@
         <v>5107</v>
       </c>
       <c r="X27">
-        <f>IFERROR(MATCH(B27,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="Y27">
-        <f>IFERROR(INDEX(value, MATCH(B27,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19677,11 +18473,11 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <f>IFERROR(MATCH(B28,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y28" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B28,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19732,11 +18528,11 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <f>IFERROR(MATCH(B29,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y29" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B29,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -19805,11 +18601,11 @@
         <v>-149</v>
       </c>
       <c r="X30">
-        <f>IFERROR(MATCH(B30,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="Y30">
-        <f>IFERROR(INDEX(value, MATCH(B30,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19878,11 +18674,11 @@
         <v>127</v>
       </c>
       <c r="X31">
-        <f>IFERROR(MATCH(B31,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="Y31">
-        <f>IFERROR(INDEX(value, MATCH(B31,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19951,11 +18747,11 @@
         <v>-162</v>
       </c>
       <c r="X32">
-        <f>IFERROR(MATCH(B32,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="Y32">
-        <f>IFERROR(INDEX(value, MATCH(B32,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20024,11 +18820,11 @@
         <v>169</v>
       </c>
       <c r="X33">
-        <f>IFERROR(MATCH(B33,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y33">
-        <f>IFERROR(INDEX(value, MATCH(B33,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20097,11 +18893,11 @@
         <v>-338</v>
       </c>
       <c r="X34">
-        <f>IFERROR(MATCH(B34,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="Y34">
-        <f>IFERROR(INDEX(value, MATCH(B34,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20152,11 +18948,11 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <f>IFERROR(MATCH(B35,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y35" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B35,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20207,11 +19003,11 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <f>IFERROR(MATCH(B36,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y36" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B36,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20280,11 +19076,11 @@
         <v>-1082</v>
       </c>
       <c r="X37">
-        <f>IFERROR(MATCH(B37,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="Y37">
-        <f>IFERROR(INDEX(value, MATCH(B37,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20353,11 +19149,11 @@
         <v>349</v>
       </c>
       <c r="X38">
-        <f>IFERROR(MATCH(B38,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="Y38">
-        <f>IFERROR(INDEX(value, MATCH(B38,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20426,11 +19222,11 @@
         <v>-41</v>
       </c>
       <c r="X39">
-        <f>IFERROR(MATCH(B39,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="Y39">
-        <f>IFERROR(INDEX(value, MATCH(B39,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20499,11 +19295,11 @@
         <v>809</v>
       </c>
       <c r="X40">
-        <f>IFERROR(MATCH(B40,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Y40">
-        <f>IFERROR(INDEX(value, MATCH(B40,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20572,11 +19368,11 @@
         <v>756</v>
       </c>
       <c r="X41">
-        <f>IFERROR(MATCH(B41,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="Y41">
-        <f>IFERROR(INDEX(value, MATCH(B41,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20627,11 +19423,11 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <f>IFERROR(MATCH(B42,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y42" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B42,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20682,11 +19478,11 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <f>IFERROR(MATCH(B43,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y43" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B43,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -20755,11 +19551,11 @@
         <v>-1677</v>
       </c>
       <c r="X44">
-        <f>IFERROR(MATCH(B44,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="Y44">
-        <f>IFERROR(INDEX(value, MATCH(B44,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20828,11 +19624,11 @@
         <v>-79</v>
       </c>
       <c r="X45">
-        <f>IFERROR(MATCH(B45,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="Y45">
-        <f>IFERROR(INDEX(value, MATCH(B45,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20901,11 +19697,11 @@
         <v>78</v>
       </c>
       <c r="X46">
-        <f>IFERROR(MATCH(B46,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="Y46">
-        <f>IFERROR(INDEX(value, MATCH(B46,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20974,11 +19770,11 @@
         <v>33</v>
       </c>
       <c r="X47">
-        <f>IFERROR(MATCH(B47,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="Y47">
-        <f>IFERROR(INDEX(value, MATCH(B47,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -21047,11 +19843,11 @@
         <v>-4185</v>
       </c>
       <c r="X48">
-        <f>IFERROR(MATCH(B48,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="Y48">
-        <f>IFERROR(INDEX(value, MATCH(B48,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -21102,11 +19898,11 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <f>IFERROR(MATCH(B49,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y49" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B49,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -21157,11 +19953,11 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <f>IFERROR(MATCH(B50,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y50" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B50,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -21230,11 +20026,11 @@
         <v>410</v>
       </c>
       <c r="X51">
-        <f>IFERROR(MATCH(B51,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="Y51">
-        <f>IFERROR(INDEX(value, MATCH(B51,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -21303,11 +20099,11 @@
         <v>77</v>
       </c>
       <c r="X52">
-        <f>IFERROR(MATCH(B52,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="Y52">
-        <f>IFERROR(INDEX(value, MATCH(B52,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -21376,11 +20172,11 @@
         <v>478</v>
       </c>
       <c r="X53">
-        <f>IFERROR(MATCH(B53,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="Y53">
-        <f>IFERROR(INDEX(value, MATCH(B53,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -21449,11 +20245,11 @@
         <v>-758</v>
       </c>
       <c r="X54">
-        <f>IFERROR(MATCH(B54,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="Y54">
-        <f>IFERROR(INDEX(value, MATCH(B54,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -21522,11 +20318,11 @@
         <v>628</v>
       </c>
       <c r="X55">
-        <f>IFERROR(MATCH(B55,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="Y55">
-        <f>IFERROR(INDEX(value, MATCH(B55,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -21577,11 +20373,11 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <f>IFERROR(MATCH(B56,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y56" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B56,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -21632,11 +20428,11 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <f>IFERROR(MATCH(B57,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y57" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B57,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -21705,11 +20501,11 @@
         <v>1243</v>
       </c>
       <c r="X58">
-        <f>IFERROR(MATCH(B58,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="Y58">
-        <f>IFERROR(INDEX(value, MATCH(B58,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -21778,11 +20574,11 @@
         <v>2009</v>
       </c>
       <c r="X59">
-        <f>IFERROR(MATCH(B59,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="Y59">
-        <f>IFERROR(INDEX(value, MATCH(B59,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -21851,11 +20647,11 @@
         <v>1301</v>
       </c>
       <c r="X60">
-        <f>IFERROR(MATCH(B60,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="Y60">
-        <f>IFERROR(INDEX(value, MATCH(B60,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -21924,11 +20720,11 @@
         <v>197</v>
       </c>
       <c r="X61">
-        <f>IFERROR(MATCH(B61,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="Y61">
-        <f>IFERROR(INDEX(value, MATCH(B61,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -21997,11 +20793,11 @@
         <v>397</v>
       </c>
       <c r="X62">
-        <f>IFERROR(MATCH(B62,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="Y62">
-        <f>IFERROR(INDEX(value, MATCH(B62,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -22052,11 +20848,11 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <f>IFERROR(MATCH(B63,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y63" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B63,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -22107,11 +20903,11 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <f>IFERROR(MATCH(B64,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y64" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B64,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -22162,11 +20958,11 @@
         <v>0</v>
       </c>
       <c r="X65">
-        <f>IFERROR(MATCH(B65,value1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y65" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B65,value1,0), 3), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -22235,11 +21031,11 @@
         <v>-395</v>
       </c>
       <c r="X66">
-        <f>IFERROR(MATCH(B66,value1,0),0)</f>
+        <f t="shared" ref="X66:X129" si="2">IFERROR(MATCH(B66,value1,0),0)</f>
         <v>42</v>
       </c>
       <c r="Y66">
-        <f>IFERROR(INDEX(value, MATCH(B66,value1,0), 3), "")</f>
+        <f t="shared" ref="Y66:Y129" si="3">IFERROR(INDEX(value, MATCH(B66,value1,0), 3), "")</f>
         <v>1</v>
       </c>
     </row>
@@ -22308,11 +21104,11 @@
         <v>256</v>
       </c>
       <c r="X67">
-        <f>IFERROR(MATCH(B67,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="Y67">
-        <f>IFERROR(INDEX(value, MATCH(B67,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -22381,11 +21177,11 @@
         <v>-812</v>
       </c>
       <c r="X68">
-        <f>IFERROR(MATCH(B68,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="Y68">
-        <f>IFERROR(INDEX(value, MATCH(B68,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -22454,11 +21250,11 @@
         <v>7</v>
       </c>
       <c r="X69">
-        <f>IFERROR(MATCH(B69,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="Y69">
-        <f>IFERROR(INDEX(value, MATCH(B69,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -22509,11 +21305,11 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <f>IFERROR(MATCH(B70,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y70" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B70,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -22564,11 +21360,11 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <f>IFERROR(MATCH(B71,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y71" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B71,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -22637,11 +21433,11 @@
         <v>624</v>
       </c>
       <c r="X72">
-        <f>IFERROR(MATCH(B72,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="Y72">
-        <f>IFERROR(INDEX(value, MATCH(B72,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -22710,11 +21506,11 @@
         <v>706</v>
       </c>
       <c r="X73">
-        <f>IFERROR(MATCH(B73,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="Y73">
-        <f>IFERROR(INDEX(value, MATCH(B73,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -22783,11 +21579,11 @@
         <v>164</v>
       </c>
       <c r="X74">
-        <f>IFERROR(MATCH(B74,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="Y74">
-        <f>IFERROR(INDEX(value, MATCH(B74,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -22856,11 +21652,11 @@
         <v>65</v>
       </c>
       <c r="X75">
-        <f>IFERROR(MATCH(B75,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="Y75">
-        <f>IFERROR(INDEX(value, MATCH(B75,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -22929,11 +21725,11 @@
         <v>-98</v>
       </c>
       <c r="X76">
-        <f>IFERROR(MATCH(B76,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="Y76">
-        <f>IFERROR(INDEX(value, MATCH(B76,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -22984,11 +21780,11 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <f>IFERROR(MATCH(B77,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y77" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B77,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -23039,11 +21835,11 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <f>IFERROR(MATCH(B78,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y78" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B78,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -23112,11 +21908,11 @@
         <v>1109</v>
       </c>
       <c r="X79">
-        <f>IFERROR(MATCH(B79,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="Y79">
-        <f>IFERROR(INDEX(value, MATCH(B79,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -23185,11 +21981,11 @@
         <v>415</v>
       </c>
       <c r="X80">
-        <f>IFERROR(MATCH(B80,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="Y80">
-        <f>IFERROR(INDEX(value, MATCH(B80,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -23258,11 +22054,11 @@
         <v>31</v>
       </c>
       <c r="X81">
-        <f>IFERROR(MATCH(B81,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="Y81">
-        <f>IFERROR(INDEX(value, MATCH(B81,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -23331,11 +22127,11 @@
         <v>656</v>
       </c>
       <c r="X82">
-        <f>IFERROR(MATCH(B82,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="Y82">
-        <f>IFERROR(INDEX(value, MATCH(B82,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -23404,11 +22200,11 @@
         <v>681</v>
       </c>
       <c r="X83">
-        <f>IFERROR(MATCH(B83,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="Y83">
-        <f>IFERROR(INDEX(value, MATCH(B83,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -23459,11 +22255,11 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <f>IFERROR(MATCH(B84,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y84" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B84,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -23514,11 +22310,11 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <f>IFERROR(MATCH(B85,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y85" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B85,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -23587,11 +22383,11 @@
         <v>-210</v>
       </c>
       <c r="X86">
-        <f>IFERROR(MATCH(B86,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="Y86">
-        <f>IFERROR(INDEX(value, MATCH(B86,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -23660,11 +22456,11 @@
         <v>-101</v>
       </c>
       <c r="X87">
-        <f>IFERROR(MATCH(B87,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="Y87">
-        <f>IFERROR(INDEX(value, MATCH(B87,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -23733,11 +22529,11 @@
         <v>580</v>
       </c>
       <c r="X88">
-        <f>IFERROR(MATCH(B88,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="Y88">
-        <f>IFERROR(INDEX(value, MATCH(B88,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -23806,11 +22602,11 @@
         <v>884</v>
       </c>
       <c r="X89">
-        <f>IFERROR(MATCH(B89,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="Y89">
-        <f>IFERROR(INDEX(value, MATCH(B89,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -23861,11 +22657,11 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <f>IFERROR(MATCH(B90,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y90" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B90,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -23916,11 +22712,11 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <f>IFERROR(MATCH(B91,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y91" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B91,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -23971,11 +22767,11 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <f>IFERROR(MATCH(B92,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y92" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B92,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -24026,11 +22822,11 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <f>IFERROR(MATCH(B93,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y93" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B93,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -24099,11 +22895,11 @@
         <v>-414</v>
       </c>
       <c r="X94">
-        <f>IFERROR(MATCH(B94,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="Y94">
-        <f>IFERROR(INDEX(value, MATCH(B94,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -24172,11 +22968,11 @@
         <v>229</v>
       </c>
       <c r="X95">
-        <f>IFERROR(MATCH(B95,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="Y95">
-        <f>IFERROR(INDEX(value, MATCH(B95,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -24245,11 +23041,11 @@
         <v>907</v>
       </c>
       <c r="X96">
-        <f>IFERROR(MATCH(B96,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="Y96">
-        <f>IFERROR(INDEX(value, MATCH(B96,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -24318,11 +23114,11 @@
         <v>334</v>
       </c>
       <c r="X97">
-        <f>IFERROR(MATCH(B97,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="Y97">
-        <f>IFERROR(INDEX(value, MATCH(B97,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -24373,11 +23169,11 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <f>IFERROR(MATCH(B98,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y98" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B98,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -24428,11 +23224,11 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <f>IFERROR(MATCH(B99,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y99" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B99,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -24501,11 +23297,11 @@
         <v>30</v>
       </c>
       <c r="X100">
-        <f>IFERROR(MATCH(B100,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="Y100">
-        <f>IFERROR(INDEX(value, MATCH(B100,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -24574,11 +23370,11 @@
         <v>1426</v>
       </c>
       <c r="X101">
-        <f>IFERROR(MATCH(B101,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="Y101">
-        <f>IFERROR(INDEX(value, MATCH(B101,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -24647,11 +23443,11 @@
         <v>828</v>
       </c>
       <c r="X102">
-        <f>IFERROR(MATCH(B102,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="Y102">
-        <f>IFERROR(INDEX(value, MATCH(B102,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -24720,11 +23516,11 @@
         <v>788</v>
       </c>
       <c r="X103">
-        <f>IFERROR(MATCH(B103,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="Y103">
-        <f>IFERROR(INDEX(value, MATCH(B103,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -24793,11 +23589,11 @@
         <v>882</v>
       </c>
       <c r="X104">
-        <f>IFERROR(MATCH(B104,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="Y104">
-        <f>IFERROR(INDEX(value, MATCH(B104,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -24848,11 +23644,11 @@
         <v>0</v>
       </c>
       <c r="X105">
-        <f>IFERROR(MATCH(B105,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y105" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B105,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -24903,11 +23699,11 @@
         <v>0</v>
       </c>
       <c r="X106">
-        <f>IFERROR(MATCH(B106,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y106" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B106,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -24976,11 +23772,11 @@
         <v>203</v>
       </c>
       <c r="X107">
-        <f>IFERROR(MATCH(B107,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="Y107">
-        <f>IFERROR(INDEX(value, MATCH(B107,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -25049,11 +23845,11 @@
         <v>-115</v>
       </c>
       <c r="X108">
-        <f>IFERROR(MATCH(B108,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="Y108">
-        <f>IFERROR(INDEX(value, MATCH(B108,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -25122,11 +23918,11 @@
         <v>1151</v>
       </c>
       <c r="X109">
-        <f>IFERROR(MATCH(B109,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="Y109">
-        <f>IFERROR(INDEX(value, MATCH(B109,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -25195,11 +23991,11 @@
         <v>86</v>
       </c>
       <c r="X110">
-        <f>IFERROR(MATCH(B110,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="Y110">
-        <f>IFERROR(INDEX(value, MATCH(B110,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -25268,11 +24064,11 @@
         <v>-591</v>
       </c>
       <c r="X111">
-        <f>IFERROR(MATCH(B111,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="Y111">
-        <f>IFERROR(INDEX(value, MATCH(B111,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -25323,11 +24119,11 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <f>IFERROR(MATCH(B112,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y112" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B112,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -25378,11 +24174,11 @@
         <v>0</v>
       </c>
       <c r="X113">
-        <f>IFERROR(MATCH(B113,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y113" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B113,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -25433,11 +24229,11 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <f>IFERROR(MATCH(B114,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y114" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B114,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -25506,11 +24302,11 @@
         <v>518</v>
       </c>
       <c r="X115">
-        <f>IFERROR(MATCH(B115,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="Y115">
-        <f>IFERROR(INDEX(value, MATCH(B115,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -25579,11 +24375,11 @@
         <v>-2252</v>
       </c>
       <c r="X116">
-        <f>IFERROR(MATCH(B116,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="Y116">
-        <f>IFERROR(INDEX(value, MATCH(B116,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -25652,11 +24448,11 @@
         <v>212</v>
       </c>
       <c r="X117">
-        <f>IFERROR(MATCH(B117,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="Y117">
-        <f>IFERROR(INDEX(value, MATCH(B117,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -25725,11 +24521,11 @@
         <v>-192</v>
       </c>
       <c r="X118">
-        <f>IFERROR(MATCH(B118,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="Y118">
-        <f>IFERROR(INDEX(value, MATCH(B118,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -25780,11 +24576,11 @@
         <v>0</v>
       </c>
       <c r="X119">
-        <f>IFERROR(MATCH(B119,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y119" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B119,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -25835,11 +24631,11 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <f>IFERROR(MATCH(B120,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y120" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B120,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -25890,11 +24686,11 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <f>IFERROR(MATCH(B121,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y121" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B121,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -25963,11 +24759,11 @@
         <v>-79</v>
       </c>
       <c r="X122">
-        <f>IFERROR(MATCH(B122,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="Y122">
-        <f>IFERROR(INDEX(value, MATCH(B122,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -26036,11 +24832,11 @@
         <v>263</v>
       </c>
       <c r="X123">
-        <f>IFERROR(MATCH(B123,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="Y123">
-        <f>IFERROR(INDEX(value, MATCH(B123,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -26109,11 +24905,11 @@
         <v>3702</v>
       </c>
       <c r="X124">
-        <f>IFERROR(MATCH(B124,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="Y124">
-        <f>IFERROR(INDEX(value, MATCH(B124,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -26182,11 +24978,11 @@
         <v>-478</v>
       </c>
       <c r="X125">
-        <f>IFERROR(MATCH(B125,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="Y125">
-        <f>IFERROR(INDEX(value, MATCH(B125,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -26237,11 +25033,11 @@
         <v>0</v>
       </c>
       <c r="X126">
-        <f>IFERROR(MATCH(B126,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y126" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B126,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -26292,11 +25088,11 @@
         <v>0</v>
       </c>
       <c r="X127">
-        <f>IFERROR(MATCH(B127,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y127" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B127,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -26365,11 +25161,11 @@
         <v>-3809</v>
       </c>
       <c r="X128">
-        <f>IFERROR(MATCH(B128,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="Y128">
-        <f>IFERROR(INDEX(value, MATCH(B128,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -26438,11 +25234,11 @@
         <v>669</v>
       </c>
       <c r="X129">
-        <f>IFERROR(MATCH(B129,value1,0),0)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="Y129">
-        <f>IFERROR(INDEX(value, MATCH(B129,value1,0), 3), "")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -26511,11 +25307,11 @@
         <v>327</v>
       </c>
       <c r="X130">
-        <f>IFERROR(MATCH(B130,value1,0),0)</f>
+        <f t="shared" ref="X130:X193" si="4">IFERROR(MATCH(B130,value1,0),0)</f>
         <v>84</v>
       </c>
       <c r="Y130">
-        <f>IFERROR(INDEX(value, MATCH(B130,value1,0), 3), "")</f>
+        <f t="shared" ref="Y130:Y193" si="5">IFERROR(INDEX(value, MATCH(B130,value1,0), 3), "")</f>
         <v>2</v>
       </c>
     </row>
@@ -26584,11 +25380,11 @@
         <v>189</v>
       </c>
       <c r="X131">
-        <f>IFERROR(MATCH(B131,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="Y131">
-        <f>IFERROR(INDEX(value, MATCH(B131,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -26657,11 +25453,11 @@
         <v>-103</v>
       </c>
       <c r="X132">
-        <f>IFERROR(MATCH(B132,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="Y132">
-        <f>IFERROR(INDEX(value, MATCH(B132,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -26712,11 +25508,11 @@
         <v>0</v>
       </c>
       <c r="X133">
-        <f>IFERROR(MATCH(B133,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y133" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B133,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -26767,11 +25563,11 @@
         <v>0</v>
       </c>
       <c r="X134">
-        <f>IFERROR(MATCH(B134,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y134" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B134,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -26840,11 +25636,11 @@
         <v>-2174</v>
       </c>
       <c r="X135">
-        <f>IFERROR(MATCH(B135,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="Y135">
-        <f>IFERROR(INDEX(value, MATCH(B135,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -26913,11 +25709,11 @@
         <v>-589</v>
       </c>
       <c r="X136">
-        <f>IFERROR(MATCH(B136,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="Y136">
-        <f>IFERROR(INDEX(value, MATCH(B136,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -26986,11 +25782,11 @@
         <v>-469</v>
       </c>
       <c r="X137">
-        <f>IFERROR(MATCH(B137,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="Y137">
-        <f>IFERROR(INDEX(value, MATCH(B137,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -27059,11 +25855,11 @@
         <v>-334</v>
       </c>
       <c r="X138">
-        <f>IFERROR(MATCH(B138,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="Y138">
-        <f>IFERROR(INDEX(value, MATCH(B138,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -27132,11 +25928,11 @@
         <v>616</v>
       </c>
       <c r="X139">
-        <f>IFERROR(MATCH(B139,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="Y139">
-        <f>IFERROR(INDEX(value, MATCH(B139,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -27187,11 +25983,11 @@
         <v>0</v>
       </c>
       <c r="X140">
-        <f>IFERROR(MATCH(B140,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y140" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B140,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -27242,11 +26038,11 @@
         <v>0</v>
       </c>
       <c r="X141">
-        <f>IFERROR(MATCH(B141,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y141" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B141,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -27315,11 +26111,11 @@
         <v>-879</v>
       </c>
       <c r="X142">
-        <f>IFERROR(MATCH(B142,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="Y142">
-        <f>IFERROR(INDEX(value, MATCH(B142,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -27388,11 +26184,11 @@
         <v>-164</v>
       </c>
       <c r="X143">
-        <f>IFERROR(MATCH(B143,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="Y143">
-        <f>IFERROR(INDEX(value, MATCH(B143,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -27461,11 +26257,11 @@
         <v>-496</v>
       </c>
       <c r="X144">
-        <f>IFERROR(MATCH(B144,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="Y144">
-        <f>IFERROR(INDEX(value, MATCH(B144,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -27534,11 +26330,11 @@
         <v>727</v>
       </c>
       <c r="X145">
-        <f>IFERROR(MATCH(B145,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="Y145">
-        <f>IFERROR(INDEX(value, MATCH(B145,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -27607,11 +26403,11 @@
         <v>-435</v>
       </c>
       <c r="X146">
-        <f>IFERROR(MATCH(B146,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="Y146">
-        <f>IFERROR(INDEX(value, MATCH(B146,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -27662,11 +26458,11 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <f>IFERROR(MATCH(B147,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y147" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B147,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -27717,11 +26513,11 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <f>IFERROR(MATCH(B148,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y148" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B148,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -27790,11 +26586,11 @@
         <v>-16</v>
       </c>
       <c r="X149">
-        <f>IFERROR(MATCH(B149,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="Y149">
-        <f>IFERROR(INDEX(value, MATCH(B149,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -27863,11 +26659,11 @@
         <v>-718</v>
       </c>
       <c r="X150">
-        <f>IFERROR(MATCH(B150,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="Y150">
-        <f>IFERROR(INDEX(value, MATCH(B150,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -27936,11 +26732,11 @@
         <v>-1056</v>
       </c>
       <c r="X151">
-        <f>IFERROR(MATCH(B151,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="Y151">
-        <f>IFERROR(INDEX(value, MATCH(B151,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -28009,11 +26805,11 @@
         <v>811</v>
       </c>
       <c r="X152">
-        <f>IFERROR(MATCH(B152,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Y152">
-        <f>IFERROR(INDEX(value, MATCH(B152,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -28082,11 +26878,11 @@
         <v>-2060</v>
       </c>
       <c r="X153">
-        <f>IFERROR(MATCH(B153,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="Y153">
-        <f>IFERROR(INDEX(value, MATCH(B153,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -28137,11 +26933,11 @@
         <v>0</v>
       </c>
       <c r="X154">
-        <f>IFERROR(MATCH(B154,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y154" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B154,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -28192,11 +26988,11 @@
         <v>0</v>
       </c>
       <c r="X155">
-        <f>IFERROR(MATCH(B155,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y155" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B155,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -28265,11 +27061,11 @@
         <v>335</v>
       </c>
       <c r="X156">
-        <f>IFERROR(MATCH(B156,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="Y156">
-        <f>IFERROR(INDEX(value, MATCH(B156,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -28338,11 +27134,11 @@
         <v>-695</v>
       </c>
       <c r="X157">
-        <f>IFERROR(MATCH(B157,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="Y157">
-        <f>IFERROR(INDEX(value, MATCH(B157,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -28411,11 +27207,11 @@
         <v>-357</v>
       </c>
       <c r="X158">
-        <f>IFERROR(MATCH(B158,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="Y158">
-        <f>IFERROR(INDEX(value, MATCH(B158,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -28484,11 +27280,11 @@
         <v>48</v>
       </c>
       <c r="X159">
-        <f>IFERROR(MATCH(B159,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="Y159">
-        <f>IFERROR(INDEX(value, MATCH(B159,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -28557,11 +27353,11 @@
         <v>-85</v>
       </c>
       <c r="X160">
-        <f>IFERROR(MATCH(B160,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="Y160">
-        <f>IFERROR(INDEX(value, MATCH(B160,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -28612,11 +27408,11 @@
         <v>0</v>
       </c>
       <c r="X161">
-        <f>IFERROR(MATCH(B161,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y161" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B161,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -28667,11 +27463,11 @@
         <v>0</v>
       </c>
       <c r="X162">
-        <f>IFERROR(MATCH(B162,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y162" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B162,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -28740,11 +27536,11 @@
         <v>57</v>
       </c>
       <c r="X163">
-        <f>IFERROR(MATCH(B163,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="Y163">
-        <f>IFERROR(INDEX(value, MATCH(B163,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -28813,11 +27609,11 @@
         <v>-134</v>
       </c>
       <c r="X164">
-        <f>IFERROR(MATCH(B164,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="Y164">
-        <f>IFERROR(INDEX(value, MATCH(B164,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -28886,11 +27682,11 @@
         <v>-158</v>
       </c>
       <c r="X165">
-        <f>IFERROR(MATCH(B165,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="Y165">
-        <f>IFERROR(INDEX(value, MATCH(B165,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -28959,11 +27755,11 @@
         <v>-154</v>
       </c>
       <c r="X166">
-        <f>IFERROR(MATCH(B166,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="Y166">
-        <f>IFERROR(INDEX(value, MATCH(B166,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -29032,11 +27828,11 @@
         <v>348</v>
       </c>
       <c r="X167">
-        <f>IFERROR(MATCH(B167,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="Y167">
-        <f>IFERROR(INDEX(value, MATCH(B167,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -29087,11 +27883,11 @@
         <v>0</v>
       </c>
       <c r="X168">
-        <f>IFERROR(MATCH(B168,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y168" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B168,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -29142,11 +27938,11 @@
         <v>0</v>
       </c>
       <c r="X169">
-        <f>IFERROR(MATCH(B169,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y169" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B169,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -29215,11 +28011,11 @@
         <v>337</v>
       </c>
       <c r="X170">
-        <f>IFERROR(MATCH(B170,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="Y170">
-        <f>IFERROR(INDEX(value, MATCH(B170,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -29288,11 +28084,11 @@
         <v>-1134</v>
       </c>
       <c r="X171">
-        <f>IFERROR(MATCH(B171,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="Y171">
-        <f>IFERROR(INDEX(value, MATCH(B171,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -29361,11 +28157,11 @@
         <v>-849</v>
       </c>
       <c r="X172">
-        <f>IFERROR(MATCH(B172,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="Y172">
-        <f>IFERROR(INDEX(value, MATCH(B172,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -29434,11 +28230,11 @@
         <v>-1246</v>
       </c>
       <c r="X173">
-        <f>IFERROR(MATCH(B173,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="Y173">
-        <f>IFERROR(INDEX(value, MATCH(B173,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -29507,11 +28303,11 @@
         <v>1289</v>
       </c>
       <c r="X174">
-        <f>IFERROR(MATCH(B174,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="Y174">
-        <f>IFERROR(INDEX(value, MATCH(B174,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -29562,11 +28358,11 @@
         <v>0</v>
       </c>
       <c r="X175">
-        <f>IFERROR(MATCH(B175,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y175" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B175,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -29617,11 +28413,11 @@
         <v>0</v>
       </c>
       <c r="X176">
-        <f>IFERROR(MATCH(B176,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y176" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B176,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -29690,11 +28486,11 @@
         <v>-13</v>
       </c>
       <c r="X177">
-        <f>IFERROR(MATCH(B177,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="Y177">
-        <f>IFERROR(INDEX(value, MATCH(B177,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -29763,11 +28559,11 @@
         <v>742</v>
       </c>
       <c r="X178">
-        <f>IFERROR(MATCH(B178,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y178" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B178,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -29836,11 +28632,11 @@
         <v>499</v>
       </c>
       <c r="X179">
-        <f>IFERROR(MATCH(B179,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="Y179">
-        <f>IFERROR(INDEX(value, MATCH(B179,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -29909,11 +28705,11 @@
         <v>75</v>
       </c>
       <c r="X180">
-        <f>IFERROR(MATCH(B180,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y180" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B180,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -29982,11 +28778,11 @@
         <v>-383</v>
       </c>
       <c r="X181">
-        <f>IFERROR(MATCH(B181,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="Y181">
-        <f>IFERROR(INDEX(value, MATCH(B181,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -30037,11 +28833,11 @@
         <v>0</v>
       </c>
       <c r="X182">
-        <f>IFERROR(MATCH(B182,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y182" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B182,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -30092,11 +28888,11 @@
         <v>0</v>
       </c>
       <c r="X183">
-        <f>IFERROR(MATCH(B183,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y183" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B183,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -30165,11 +28961,11 @@
         <v>35</v>
       </c>
       <c r="X184">
-        <f>IFERROR(MATCH(B184,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="Y184">
-        <f>IFERROR(INDEX(value, MATCH(B184,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -30238,11 +29034,11 @@
         <v>298</v>
       </c>
       <c r="X185">
-        <f>IFERROR(MATCH(B185,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="Y185">
-        <f>IFERROR(INDEX(value, MATCH(B185,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -30311,11 +29107,11 @@
         <v>-647</v>
       </c>
       <c r="X186">
-        <f>IFERROR(MATCH(B186,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="Y186">
-        <f>IFERROR(INDEX(value, MATCH(B186,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -30384,11 +29180,11 @@
         <v>686</v>
       </c>
       <c r="X187">
-        <f>IFERROR(MATCH(B187,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="Y187">
-        <f>IFERROR(INDEX(value, MATCH(B187,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -30457,11 +29253,11 @@
         <v>-251</v>
       </c>
       <c r="X188">
-        <f>IFERROR(MATCH(B188,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="Y188">
-        <f>IFERROR(INDEX(value, MATCH(B188,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -30512,11 +29308,11 @@
         <v>0</v>
       </c>
       <c r="X189">
-        <f>IFERROR(MATCH(B189,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y189" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B189,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -30567,11 +29363,11 @@
         <v>0</v>
       </c>
       <c r="X190">
-        <f>IFERROR(MATCH(B190,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y190" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B190,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -30640,11 +29436,11 @@
         <v>-500</v>
       </c>
       <c r="X191">
-        <f>IFERROR(MATCH(B191,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="Y191">
-        <f>IFERROR(INDEX(value, MATCH(B191,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -30713,11 +29509,11 @@
         <v>195</v>
       </c>
       <c r="X192">
-        <f>IFERROR(MATCH(B192,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="Y192">
-        <f>IFERROR(INDEX(value, MATCH(B192,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -30786,11 +29582,11 @@
         <v>340</v>
       </c>
       <c r="X193">
-        <f>IFERROR(MATCH(B193,value1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="Y193">
-        <f>IFERROR(INDEX(value, MATCH(B193,value1,0), 3), "")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -30859,11 +29655,11 @@
         <v>-223</v>
       </c>
       <c r="X194">
-        <f>IFERROR(MATCH(B194,value1,0),0)</f>
+        <f t="shared" ref="X194:X248" si="6">IFERROR(MATCH(B194,value1,0),0)</f>
         <v>0</v>
       </c>
       <c r="Y194" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B194,value1,0), 3), "")</f>
+        <f t="shared" ref="Y194:Y248" si="7">IFERROR(INDEX(value, MATCH(B194,value1,0), 3), "")</f>
         <v/>
       </c>
     </row>
@@ -30932,11 +29728,11 @@
         <v>-416</v>
       </c>
       <c r="X195">
-        <f>IFERROR(MATCH(B195,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="Y195">
-        <f>IFERROR(INDEX(value, MATCH(B195,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -30987,11 +29783,11 @@
         <v>0</v>
       </c>
       <c r="X196">
-        <f>IFERROR(MATCH(B196,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y196" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B196,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -31042,11 +29838,11 @@
         <v>0</v>
       </c>
       <c r="X197">
-        <f>IFERROR(MATCH(B197,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y197" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B197,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -31115,11 +29911,11 @@
         <v>-531</v>
       </c>
       <c r="X198">
-        <f>IFERROR(MATCH(B198,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="Y198">
-        <f>IFERROR(INDEX(value, MATCH(B198,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -31188,11 +29984,11 @@
         <v>-498</v>
       </c>
       <c r="X199">
-        <f>IFERROR(MATCH(B199,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="Y199">
-        <f>IFERROR(INDEX(value, MATCH(B199,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -31261,11 +30057,11 @@
         <v>886</v>
       </c>
       <c r="X200">
-        <f>IFERROR(MATCH(B200,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>131</v>
       </c>
       <c r="Y200">
-        <f>IFERROR(INDEX(value, MATCH(B200,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -31334,11 +30130,11 @@
         <v>913</v>
       </c>
       <c r="X201">
-        <f>IFERROR(MATCH(B201,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="Y201">
-        <f>IFERROR(INDEX(value, MATCH(B201,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -31389,11 +30185,11 @@
         <v>0</v>
       </c>
       <c r="X202">
-        <f>IFERROR(MATCH(B202,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y202" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B202,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -31444,11 +30240,11 @@
         <v>0</v>
       </c>
       <c r="X203">
-        <f>IFERROR(MATCH(B203,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y203" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B203,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -31499,11 +30295,11 @@
         <v>0</v>
       </c>
       <c r="X204">
-        <f>IFERROR(MATCH(B204,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y204" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B204,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -31572,11 +30368,11 @@
         <v>260</v>
       </c>
       <c r="X205">
-        <f>IFERROR(MATCH(B205,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="Y205">
-        <f>IFERROR(INDEX(value, MATCH(B205,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -31645,11 +30441,11 @@
         <v>526</v>
       </c>
       <c r="X206">
-        <f>IFERROR(MATCH(B206,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="Y206">
-        <f>IFERROR(INDEX(value, MATCH(B206,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -31718,11 +30514,11 @@
         <v>-519</v>
       </c>
       <c r="X207">
-        <f>IFERROR(MATCH(B207,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="Y207">
-        <f>IFERROR(INDEX(value, MATCH(B207,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -31791,11 +30587,11 @@
         <v>-349</v>
       </c>
       <c r="X208">
-        <f>IFERROR(MATCH(B208,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
       <c r="Y208">
-        <f>IFERROR(INDEX(value, MATCH(B208,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -31864,11 +30660,11 @@
         <v>-508</v>
       </c>
       <c r="X209">
-        <f>IFERROR(MATCH(B209,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>137</v>
       </c>
       <c r="Y209">
-        <f>IFERROR(INDEX(value, MATCH(B209,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -31919,11 +30715,11 @@
         <v>0</v>
       </c>
       <c r="X210">
-        <f>IFERROR(MATCH(B210,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y210" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B210,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -31974,11 +30770,11 @@
         <v>0</v>
       </c>
       <c r="X211">
-        <f>IFERROR(MATCH(B211,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y211" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B211,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -32047,11 +30843,11 @@
         <v>-996</v>
       </c>
       <c r="X212">
-        <f>IFERROR(MATCH(B212,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="Y212">
-        <f>IFERROR(INDEX(value, MATCH(B212,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -32120,11 +30916,11 @@
         <v>-176</v>
       </c>
       <c r="X213">
-        <f>IFERROR(MATCH(B213,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="Y213">
-        <f>IFERROR(INDEX(value, MATCH(B213,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -32193,11 +30989,11 @@
         <v>-247</v>
       </c>
       <c r="X214">
-        <f>IFERROR(MATCH(B214,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="Y214">
-        <f>IFERROR(INDEX(value, MATCH(B214,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -32266,11 +31062,11 @@
         <v>-9</v>
       </c>
       <c r="X215">
-        <f>IFERROR(MATCH(B215,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="Y215">
-        <f>IFERROR(INDEX(value, MATCH(B215,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -32339,11 +31135,11 @@
         <v>-486</v>
       </c>
       <c r="X216">
-        <f>IFERROR(MATCH(B216,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="Y216">
-        <f>IFERROR(INDEX(value, MATCH(B216,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -32394,11 +31190,11 @@
         <v>0</v>
       </c>
       <c r="X217">
-        <f>IFERROR(MATCH(B217,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y217" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B217,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -32449,11 +31245,11 @@
         <v>0</v>
       </c>
       <c r="X218">
-        <f>IFERROR(MATCH(B218,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y218" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B218,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -32522,11 +31318,11 @@
         <v>-777</v>
       </c>
       <c r="X219">
-        <f>IFERROR(MATCH(B219,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="Y219">
-        <f>IFERROR(INDEX(value, MATCH(B219,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -32595,11 +31391,11 @@
         <v>-352</v>
       </c>
       <c r="X220">
-        <f>IFERROR(MATCH(B220,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="Y220">
-        <f>IFERROR(INDEX(value, MATCH(B220,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -32668,11 +31464,11 @@
         <v>33</v>
       </c>
       <c r="X221">
-        <f>IFERROR(MATCH(B221,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="Y221">
-        <f>IFERROR(INDEX(value, MATCH(B221,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -32741,11 +31537,11 @@
         <v>-1148</v>
       </c>
       <c r="X222">
-        <f>IFERROR(MATCH(B222,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="Y222">
-        <f>IFERROR(INDEX(value, MATCH(B222,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -32814,11 +31610,11 @@
         <v>-371</v>
       </c>
       <c r="X223">
-        <f>IFERROR(MATCH(B223,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="Y223">
-        <f>IFERROR(INDEX(value, MATCH(B223,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -32869,11 +31665,11 @@
         <v>0</v>
       </c>
       <c r="X224">
-        <f>IFERROR(MATCH(B224,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y224" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B224,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -32924,11 +31720,11 @@
         <v>0</v>
       </c>
       <c r="X225">
-        <f>IFERROR(MATCH(B225,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y225" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B225,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -32979,11 +31775,11 @@
         <v>0</v>
       </c>
       <c r="X226">
-        <f>IFERROR(MATCH(B226,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y226" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B226,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -33034,11 +31830,11 @@
         <v>0</v>
       </c>
       <c r="X227">
-        <f>IFERROR(MATCH(B227,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y227" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B227,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -33107,11 +31903,11 @@
         <v>-1550</v>
       </c>
       <c r="X228">
-        <f>IFERROR(MATCH(B228,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="Y228">
-        <f>IFERROR(INDEX(value, MATCH(B228,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -33180,11 +31976,11 @@
         <v>-684</v>
       </c>
       <c r="X229">
-        <f>IFERROR(MATCH(B229,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="Y229">
-        <f>IFERROR(INDEX(value, MATCH(B229,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -33253,11 +32049,11 @@
         <v>-1131</v>
       </c>
       <c r="X230">
-        <f>IFERROR(MATCH(B230,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="Y230">
-        <f>IFERROR(INDEX(value, MATCH(B230,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -33308,11 +32104,11 @@
         <v>0</v>
       </c>
       <c r="X231">
-        <f>IFERROR(MATCH(B231,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y231" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B231,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -33363,11 +32159,11 @@
         <v>0</v>
       </c>
       <c r="X232">
-        <f>IFERROR(MATCH(B232,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y232" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B232,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -33436,11 +32232,11 @@
         <v>-149</v>
       </c>
       <c r="X233">
-        <f>IFERROR(MATCH(B233,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="Y233">
-        <f>IFERROR(INDEX(value, MATCH(B233,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -33509,11 +32305,11 @@
         <v>1634</v>
       </c>
       <c r="X234">
-        <f>IFERROR(MATCH(B234,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="Y234">
-        <f>IFERROR(INDEX(value, MATCH(B234,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -33582,11 +32378,11 @@
         <v>375</v>
       </c>
       <c r="X235">
-        <f>IFERROR(MATCH(B235,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="Y235">
-        <f>IFERROR(INDEX(value, MATCH(B235,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -33655,11 +32451,11 @@
         <v>-875</v>
       </c>
       <c r="X236">
-        <f>IFERROR(MATCH(B236,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="Y236">
-        <f>IFERROR(INDEX(value, MATCH(B236,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -33728,11 +32524,11 @@
         <v>-144</v>
       </c>
       <c r="X237">
-        <f>IFERROR(MATCH(B237,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="Y237">
-        <f>IFERROR(INDEX(value, MATCH(B237,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -33783,11 +32579,11 @@
         <v>0</v>
       </c>
       <c r="X238">
-        <f>IFERROR(MATCH(B238,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y238" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B238,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -33838,11 +32634,11 @@
         <v>0</v>
       </c>
       <c r="X239">
-        <f>IFERROR(MATCH(B239,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y239" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B239,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -33911,11 +32707,11 @@
         <v>895</v>
       </c>
       <c r="X240">
-        <f>IFERROR(MATCH(B240,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="Y240">
-        <f>IFERROR(INDEX(value, MATCH(B240,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -33984,11 +32780,11 @@
         <v>-35</v>
       </c>
       <c r="X241">
-        <f>IFERROR(MATCH(B241,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="Y241">
-        <f>IFERROR(INDEX(value, MATCH(B241,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -34057,11 +32853,11 @@
         <v>-352</v>
       </c>
       <c r="X242">
-        <f>IFERROR(MATCH(B242,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="Y242">
-        <f>IFERROR(INDEX(value, MATCH(B242,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -34130,11 +32926,11 @@
         <v>79</v>
       </c>
       <c r="X243">
-        <f>IFERROR(MATCH(B243,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="Y243">
-        <f>IFERROR(INDEX(value, MATCH(B243,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -34203,11 +32999,11 @@
         <v>125</v>
       </c>
       <c r="X244">
-        <f>IFERROR(MATCH(B244,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="Y244">
-        <f>IFERROR(INDEX(value, MATCH(B244,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34258,11 +33054,11 @@
         <v>0</v>
       </c>
       <c r="X245">
-        <f>IFERROR(MATCH(B245,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y245" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B245,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -34313,11 +33109,11 @@
         <v>0</v>
       </c>
       <c r="X246">
-        <f>IFERROR(MATCH(B246,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y246" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B246,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -34386,11 +33182,11 @@
         <v>-138</v>
       </c>
       <c r="X247">
-        <f>IFERROR(MATCH(B247,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y247" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B247,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -34459,11 +33255,11 @@
         <v>0</v>
       </c>
       <c r="X248">
-        <f>IFERROR(MATCH(B248,value1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y248" t="str">
-        <f>IFERROR(INDEX(value, MATCH(B248,value1,0), 3), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -34474,7 +33270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView topLeftCell="A137" workbookViewId="0">
@@ -36252,7 +35048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47180,7 +45976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
